--- a/仕様書/モルモットホイーラン_仕様書_2Dリソース.xlsx
+++ b/仕様書/モルモットホイーラン_仕様書_2Dリソース.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971DF5F-F818-45A9-A5E3-43F2D9CB94F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D84F475-A680-4ECD-904B-9BB919B41F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -601,6 +601,16 @@
       <t>メイ</t>
     </rPh>
     <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴの画像を「モルモットホイーラン」に変更</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2093,56 +2103,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>70720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104927</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF9ABE0-3721-4C32-A8BE-D06F33F9E555}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2514600" y="4038600"/>
-          <a:ext cx="2196700" cy="623087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -2168,7 +2128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2218,7 +2178,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2268,7 +2228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2318,7 +2278,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2368,7 +2328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2418,7 +2378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2468,7 +2428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2518,7 +2478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2568,7 +2528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2618,7 +2578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2668,7 +2628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2795,7 +2755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2845,7 +2805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2895,7 +2855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2945,7 +2905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2995,7 +2955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3111,7 +3071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3161,7 +3121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3176,6 +3136,56 @@
         <a:xfrm>
           <a:off x="1473199" y="56172100"/>
           <a:ext cx="3977963" cy="2203450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1870EBCD-2B1B-4F4F-B30A-4F3C9CB1D3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577341" y="3451861"/>
+          <a:ext cx="4000500" cy="2198896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3490,27 +3500,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -3521,7 +3531,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -3597,7 +3607,7 @@
       <c r="BT7" s="32"/>
       <c r="BU7" s="32"/>
     </row>
-    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3683,7 @@
       <c r="BT8" s="32"/>
       <c r="BU8" s="32"/>
     </row>
-    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3747,7 +3757,7 @@
       <c r="BT9" s="32"/>
       <c r="BU9" s="32"/>
     </row>
-    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3829,7 +3839,7 @@
       <c r="BT10" s="31"/>
       <c r="BU10" s="31"/>
     </row>
-    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3903,7 +3913,7 @@
       <c r="BT11" s="31"/>
       <c r="BU11" s="31"/>
     </row>
-    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3977,7 +3987,7 @@
       <c r="BT12" s="31"/>
       <c r="BU12" s="31"/>
     </row>
-    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4059,7 +4069,7 @@
       <c r="BT13" s="6"/>
       <c r="BU13" s="6"/>
     </row>
-    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4141,7 +4151,7 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
     </row>
-    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4223,7 +4233,7 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
     </row>
-    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4305,7 +4315,7 @@
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
     </row>
-    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4387,7 +4397,7 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
     </row>
-    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4395,7 +4405,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="7">
+        <v>44320</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4406,7 +4418,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4414,7 +4428,9 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4429,7 +4445,9 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
+      <c r="AQ18" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -4461,7 +4479,7 @@
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
     </row>
-    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4535,7 +4553,7 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
     </row>
-    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4609,7 +4627,7 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
     </row>
-    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4683,7 +4701,7 @@
       <c r="BT21" s="2"/>
       <c r="BU21" s="2"/>
     </row>
-    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4757,7 +4775,7 @@
       <c r="BT22" s="2"/>
       <c r="BU22" s="2"/>
     </row>
-    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4831,7 +4849,7 @@
       <c r="BT23" s="2"/>
       <c r="BU23" s="2"/>
     </row>
-    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4905,7 +4923,7 @@
       <c r="BT24" s="2"/>
       <c r="BU24" s="2"/>
     </row>
-    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4979,7 +4997,7 @@
       <c r="BT25" s="2"/>
       <c r="BU25" s="2"/>
     </row>
-    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5053,7 +5071,7 @@
       <c r="BT26" s="2"/>
       <c r="BU26" s="2"/>
     </row>
-    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5127,7 +5145,7 @@
       <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
     </row>
-    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -5201,7 +5219,7 @@
       <c r="BT28" s="2"/>
       <c r="BU28" s="2"/>
     </row>
-    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5275,7 +5293,7 @@
       <c r="BT29" s="2"/>
       <c r="BU29" s="2"/>
     </row>
-    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -5349,7 +5367,7 @@
       <c r="BT30" s="2"/>
       <c r="BU30" s="2"/>
     </row>
-    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5423,7 +5441,7 @@
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
     </row>
-    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -5432,7 +5450,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -5441,7 +5459,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5450,7 +5468,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -5459,7 +5477,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5468,7 +5486,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -5477,7 +5495,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5486,7 +5504,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -5495,7 +5513,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5504,7 +5522,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -5513,7 +5531,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -5522,7 +5540,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -5531,7 +5549,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5540,7 +5558,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -5549,7 +5567,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5558,7 +5576,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -5567,7 +5585,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -5576,7 +5594,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -5585,7 +5603,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -5594,7 +5612,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -5730,27 +5748,27 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.08203125" style="1"/>
+    <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:82" s="17" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="21" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -5761,7 +5779,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -5846,7 +5864,7 @@
       <c r="CC7" s="42"/>
       <c r="CD7" s="43"/>
     </row>
-    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +5949,7 @@
       <c r="CC8" s="45"/>
       <c r="CD8" s="46"/>
     </row>
-    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -6014,7 +6032,7 @@
       <c r="CC9" s="48"/>
       <c r="CD9" s="49"/>
     </row>
-    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6023,7 +6041,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -6114,7 +6132,7 @@
       <c r="CC11" s="39"/>
       <c r="CD11" s="39"/>
     </row>
-    <row r="12" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6197,7 +6215,7 @@
       <c r="CC12" s="39"/>
       <c r="CD12" s="39"/>
     </row>
-    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6288,7 +6306,7 @@
       <c r="CC13" s="38"/>
       <c r="CD13" s="38"/>
     </row>
-    <row r="14" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6371,7 +6389,7 @@
       <c r="CC14" s="38"/>
       <c r="CD14" s="38"/>
     </row>
-    <row r="15" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6454,7 +6472,7 @@
       <c r="CC15" s="38"/>
       <c r="CD15" s="38"/>
     </row>
-    <row r="16" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6539,7 +6557,7 @@
       <c r="CC16" s="39"/>
       <c r="CD16" s="39"/>
     </row>
-    <row r="17" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6622,7 +6640,7 @@
       <c r="CC17" s="39"/>
       <c r="CD17" s="39"/>
     </row>
-    <row r="18" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -6707,7 +6725,7 @@
       <c r="CC18" s="37"/>
       <c r="CD18" s="37"/>
     </row>
-    <row r="19" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6790,7 +6808,7 @@
       <c r="CC19" s="37"/>
       <c r="CD19" s="37"/>
     </row>
-    <row r="20" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6873,7 +6891,7 @@
       <c r="CC20" s="37"/>
       <c r="CD20" s="37"/>
     </row>
-    <row r="21" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6956,7 +6974,7 @@
       <c r="CC21" s="37"/>
       <c r="CD21" s="37"/>
     </row>
-    <row r="22" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7039,7 +7057,7 @@
       <c r="CC22" s="37"/>
       <c r="CD22" s="37"/>
     </row>
-    <row r="23" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -7122,7 +7140,7 @@
       <c r="CC23" s="37"/>
       <c r="CD23" s="37"/>
     </row>
-    <row r="24" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -7205,7 +7223,7 @@
       <c r="CC24" s="37"/>
       <c r="CD24" s="37"/>
     </row>
-    <row r="25" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -7288,7 +7306,7 @@
       <c r="CC25" s="37"/>
       <c r="CD25" s="37"/>
     </row>
-    <row r="26" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -7371,7 +7389,7 @@
       <c r="CC26" s="37"/>
       <c r="CD26" s="37"/>
     </row>
-    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -7454,7 +7472,7 @@
       <c r="CC27" s="37"/>
       <c r="CD27" s="37"/>
     </row>
-    <row r="28" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -7537,7 +7555,7 @@
       <c r="CC28" s="37"/>
       <c r="CD28" s="37"/>
     </row>
-    <row r="29" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7620,7 +7638,7 @@
       <c r="CC29" s="37"/>
       <c r="CD29" s="37"/>
     </row>
-    <row r="30" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7703,7 +7721,7 @@
       <c r="CC30" s="37"/>
       <c r="CD30" s="37"/>
     </row>
-    <row r="31" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7786,7 +7804,7 @@
       <c r="CC31" s="37"/>
       <c r="CD31" s="37"/>
     </row>
-    <row r="32" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -7869,7 +7887,7 @@
       <c r="CC32" s="37"/>
       <c r="CD32" s="37"/>
     </row>
-    <row r="33" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7952,7 +7970,7 @@
       <c r="CC33" s="37"/>
       <c r="CD33" s="37"/>
     </row>
-    <row r="34" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -8035,7 +8053,7 @@
       <c r="CC34" s="37"/>
       <c r="CD34" s="37"/>
     </row>
-    <row r="35" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -8118,7 +8136,7 @@
       <c r="CC35" s="37"/>
       <c r="CD35" s="37"/>
     </row>
-    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -8127,7 +8145,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -8136,7 +8154,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -8145,7 +8163,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -8236,7 +8254,7 @@
       <c r="CC39" s="39"/>
       <c r="CD39" s="39"/>
     </row>
-    <row r="40" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -8319,7 +8337,7 @@
       <c r="CC40" s="39"/>
       <c r="CD40" s="39"/>
     </row>
-    <row r="41" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -8410,7 +8428,7 @@
       <c r="CC41" s="38"/>
       <c r="CD41" s="38"/>
     </row>
-    <row r="42" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -8493,7 +8511,7 @@
       <c r="CC42" s="38"/>
       <c r="CD42" s="38"/>
     </row>
-    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -8576,7 +8594,7 @@
       <c r="CC43" s="38"/>
       <c r="CD43" s="38"/>
     </row>
-    <row r="44" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -8661,7 +8679,7 @@
       <c r="CC44" s="39"/>
       <c r="CD44" s="39"/>
     </row>
-    <row r="45" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -8744,7 +8762,7 @@
       <c r="CC45" s="39"/>
       <c r="CD45" s="39"/>
     </row>
-    <row r="46" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -8829,7 +8847,7 @@
       <c r="CC46" s="37"/>
       <c r="CD46" s="37"/>
     </row>
-    <row r="47" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -8912,7 +8930,7 @@
       <c r="CC47" s="37"/>
       <c r="CD47" s="37"/>
     </row>
-    <row r="48" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -8995,7 +9013,7 @@
       <c r="CC48" s="37"/>
       <c r="CD48" s="37"/>
     </row>
-    <row r="49" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -9078,7 +9096,7 @@
       <c r="CC49" s="37"/>
       <c r="CD49" s="37"/>
     </row>
-    <row r="50" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -9161,7 +9179,7 @@
       <c r="CC50" s="37"/>
       <c r="CD50" s="37"/>
     </row>
-    <row r="51" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -9244,7 +9262,7 @@
       <c r="CC51" s="37"/>
       <c r="CD51" s="37"/>
     </row>
-    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
@@ -9320,7 +9338,7 @@
       <c r="CC52" s="37"/>
       <c r="CD52" s="37"/>
     </row>
-    <row r="53" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -9396,7 +9414,7 @@
       <c r="CC53" s="37"/>
       <c r="CD53" s="37"/>
     </row>
-    <row r="54" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -9472,7 +9490,7 @@
       <c r="CC54" s="37"/>
       <c r="CD54" s="37"/>
     </row>
-    <row r="55" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
@@ -9548,7 +9566,7 @@
       <c r="CC55" s="37"/>
       <c r="CD55" s="37"/>
     </row>
-    <row r="56" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
@@ -9624,7 +9642,7 @@
       <c r="CC56" s="37"/>
       <c r="CD56" s="37"/>
     </row>
-    <row r="57" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
@@ -9700,7 +9718,7 @@
       <c r="CC57" s="37"/>
       <c r="CD57" s="37"/>
     </row>
-    <row r="58" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
@@ -9776,7 +9794,7 @@
       <c r="CC58" s="37"/>
       <c r="CD58" s="37"/>
     </row>
-    <row r="59" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -9852,7 +9870,7 @@
       <c r="CC59" s="37"/>
       <c r="CD59" s="37"/>
     </row>
-    <row r="60" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
@@ -9928,7 +9946,7 @@
       <c r="CC60" s="37"/>
       <c r="CD60" s="37"/>
     </row>
-    <row r="61" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -10004,7 +10022,7 @@
       <c r="CC61" s="37"/>
       <c r="CD61" s="37"/>
     </row>
-    <row r="62" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -10080,7 +10098,7 @@
       <c r="CC62" s="37"/>
       <c r="CD62" s="37"/>
     </row>
-    <row r="63" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -10156,8 +10174,8 @@
       <c r="CC63" s="37"/>
       <c r="CD63" s="37"/>
     </row>
-    <row r="66" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="67" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I67" s="39" t="s">
         <v>13</v>
       </c>
@@ -10241,7 +10259,7 @@
       <c r="CC67" s="39"/>
       <c r="CD67" s="39"/>
     </row>
-    <row r="68" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I68" s="39"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
@@ -10317,7 +10335,7 @@
       <c r="CC68" s="39"/>
       <c r="CD68" s="39"/>
     </row>
-    <row r="69" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I69" s="38" t="s">
         <v>60</v>
       </c>
@@ -10401,7 +10419,7 @@
       <c r="CC69" s="38"/>
       <c r="CD69" s="38"/>
     </row>
-    <row r="70" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
@@ -10477,7 +10495,7 @@
       <c r="CC70" s="38"/>
       <c r="CD70" s="38"/>
     </row>
-    <row r="71" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
@@ -10553,7 +10571,7 @@
       <c r="CC71" s="38"/>
       <c r="CD71" s="38"/>
     </row>
-    <row r="72" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I72" s="39" t="s">
         <v>50</v>
       </c>
@@ -10631,7 +10649,7 @@
       <c r="CC72" s="39"/>
       <c r="CD72" s="39"/>
     </row>
-    <row r="73" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
       <c r="K73" s="39"/>
@@ -10707,7 +10725,7 @@
       <c r="CC73" s="39"/>
       <c r="CD73" s="39"/>
     </row>
-    <row r="74" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
@@ -10785,7 +10803,7 @@
       <c r="CC74" s="37"/>
       <c r="CD74" s="37"/>
     </row>
-    <row r="75" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -10861,7 +10879,7 @@
       <c r="CC75" s="37"/>
       <c r="CD75" s="37"/>
     </row>
-    <row r="76" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
@@ -10937,7 +10955,7 @@
       <c r="CC76" s="37"/>
       <c r="CD76" s="37"/>
     </row>
-    <row r="77" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
@@ -11013,7 +11031,7 @@
       <c r="CC77" s="37"/>
       <c r="CD77" s="37"/>
     </row>
-    <row r="78" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
@@ -11089,7 +11107,7 @@
       <c r="CC78" s="37"/>
       <c r="CD78" s="37"/>
     </row>
-    <row r="79" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
@@ -11165,7 +11183,7 @@
       <c r="CC79" s="37"/>
       <c r="CD79" s="37"/>
     </row>
-    <row r="80" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
@@ -11241,7 +11259,7 @@
       <c r="CC80" s="37"/>
       <c r="CD80" s="37"/>
     </row>
-    <row r="81" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
@@ -11317,7 +11335,7 @@
       <c r="CC81" s="37"/>
       <c r="CD81" s="37"/>
     </row>
-    <row r="82" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
@@ -11393,7 +11411,7 @@
       <c r="CC82" s="37"/>
       <c r="CD82" s="37"/>
     </row>
-    <row r="83" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
@@ -11469,7 +11487,7 @@
       <c r="CC83" s="37"/>
       <c r="CD83" s="37"/>
     </row>
-    <row r="84" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
@@ -11545,7 +11563,7 @@
       <c r="CC84" s="37"/>
       <c r="CD84" s="37"/>
     </row>
-    <row r="85" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
@@ -11621,7 +11639,7 @@
       <c r="CC85" s="37"/>
       <c r="CD85" s="37"/>
     </row>
-    <row r="86" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
@@ -11697,7 +11715,7 @@
       <c r="CC86" s="37"/>
       <c r="CD86" s="37"/>
     </row>
-    <row r="87" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
@@ -11773,7 +11791,7 @@
       <c r="CC87" s="37"/>
       <c r="CD87" s="37"/>
     </row>
-    <row r="88" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
@@ -11849,7 +11867,7 @@
       <c r="CC88" s="37"/>
       <c r="CD88" s="37"/>
     </row>
-    <row r="89" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
@@ -11925,7 +11943,7 @@
       <c r="CC89" s="37"/>
       <c r="CD89" s="37"/>
     </row>
-    <row r="90" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
@@ -12001,7 +12019,7 @@
       <c r="CC90" s="37"/>
       <c r="CD90" s="37"/>
     </row>
-    <row r="91" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
@@ -12077,8 +12095,8 @@
       <c r="CC91" s="37"/>
       <c r="CD91" s="37"/>
     </row>
-    <row r="94" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="95" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I95" s="39" t="s">
         <v>13</v>
       </c>
@@ -12162,7 +12180,7 @@
       <c r="CC95" s="39"/>
       <c r="CD95" s="39"/>
     </row>
-    <row r="96" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I96" s="39"/>
       <c r="J96" s="39"/>
       <c r="K96" s="39"/>
@@ -12238,7 +12256,7 @@
       <c r="CC96" s="39"/>
       <c r="CD96" s="39"/>
     </row>
-    <row r="97" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I97" s="38" t="s">
         <v>64</v>
       </c>
@@ -12322,7 +12340,7 @@
       <c r="CC97" s="38"/>
       <c r="CD97" s="38"/>
     </row>
-    <row r="98" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I98" s="38"/>
       <c r="J98" s="38"/>
       <c r="K98" s="38"/>
@@ -12398,7 +12416,7 @@
       <c r="CC98" s="38"/>
       <c r="CD98" s="38"/>
     </row>
-    <row r="99" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I99" s="38"/>
       <c r="J99" s="38"/>
       <c r="K99" s="38"/>
@@ -12474,7 +12492,7 @@
       <c r="CC99" s="38"/>
       <c r="CD99" s="38"/>
     </row>
-    <row r="100" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I100" s="39" t="s">
         <v>20</v>
       </c>
@@ -12552,7 +12570,7 @@
       <c r="CC100" s="39"/>
       <c r="CD100" s="39"/>
     </row>
-    <row r="101" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I101" s="39"/>
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
@@ -12628,7 +12646,7 @@
       <c r="CC101" s="39"/>
       <c r="CD101" s="39"/>
     </row>
-    <row r="102" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
@@ -12706,7 +12724,7 @@
       <c r="CC102" s="37"/>
       <c r="CD102" s="37"/>
     </row>
-    <row r="103" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
@@ -12782,7 +12800,7 @@
       <c r="CC103" s="37"/>
       <c r="CD103" s="37"/>
     </row>
-    <row r="104" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
@@ -12858,7 +12876,7 @@
       <c r="CC104" s="37"/>
       <c r="CD104" s="37"/>
     </row>
-    <row r="105" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
@@ -12934,7 +12952,7 @@
       <c r="CC105" s="37"/>
       <c r="CD105" s="37"/>
     </row>
-    <row r="106" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
       <c r="K106" s="36"/>
@@ -13010,7 +13028,7 @@
       <c r="CC106" s="37"/>
       <c r="CD106" s="37"/>
     </row>
-    <row r="107" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I107" s="36"/>
       <c r="J107" s="36"/>
       <c r="K107" s="36"/>
@@ -13086,7 +13104,7 @@
       <c r="CC107" s="37"/>
       <c r="CD107" s="37"/>
     </row>
-    <row r="108" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I108" s="36"/>
       <c r="J108" s="36"/>
       <c r="K108" s="36"/>
@@ -13162,7 +13180,7 @@
       <c r="CC108" s="37"/>
       <c r="CD108" s="37"/>
     </row>
-    <row r="109" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I109" s="36"/>
       <c r="J109" s="36"/>
       <c r="K109" s="36"/>
@@ -13238,7 +13256,7 @@
       <c r="CC109" s="37"/>
       <c r="CD109" s="37"/>
     </row>
-    <row r="110" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
       <c r="K110" s="36"/>
@@ -13314,7 +13332,7 @@
       <c r="CC110" s="37"/>
       <c r="CD110" s="37"/>
     </row>
-    <row r="111" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
@@ -13390,7 +13408,7 @@
       <c r="CC111" s="37"/>
       <c r="CD111" s="37"/>
     </row>
-    <row r="112" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
       <c r="K112" s="36"/>
@@ -13466,7 +13484,7 @@
       <c r="CC112" s="37"/>
       <c r="CD112" s="37"/>
     </row>
-    <row r="113" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
       <c r="K113" s="36"/>
@@ -13542,7 +13560,7 @@
       <c r="CC113" s="37"/>
       <c r="CD113" s="37"/>
     </row>
-    <row r="114" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I114" s="36"/>
       <c r="J114" s="36"/>
       <c r="K114" s="36"/>
@@ -13618,7 +13636,7 @@
       <c r="CC114" s="37"/>
       <c r="CD114" s="37"/>
     </row>
-    <row r="115" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
       <c r="K115" s="36"/>
@@ -13694,7 +13712,7 @@
       <c r="CC115" s="37"/>
       <c r="CD115" s="37"/>
     </row>
-    <row r="116" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
       <c r="K116" s="36"/>
@@ -13770,7 +13788,7 @@
       <c r="CC116" s="37"/>
       <c r="CD116" s="37"/>
     </row>
-    <row r="117" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
       <c r="K117" s="36"/>
@@ -13846,7 +13864,7 @@
       <c r="CC117" s="37"/>
       <c r="CD117" s="37"/>
     </row>
-    <row r="118" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
       <c r="K118" s="36"/>
@@ -13922,7 +13940,7 @@
       <c r="CC118" s="37"/>
       <c r="CD118" s="37"/>
     </row>
-    <row r="119" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I119" s="36"/>
       <c r="J119" s="36"/>
       <c r="K119" s="36"/>
@@ -13998,8 +14016,8 @@
       <c r="CC119" s="37"/>
       <c r="CD119" s="37"/>
     </row>
-    <row r="122" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="123" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="123" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I123" s="39" t="s">
         <v>13</v>
       </c>
@@ -14083,7 +14101,7 @@
       <c r="CC123" s="39"/>
       <c r="CD123" s="39"/>
     </row>
-    <row r="124" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I124" s="39"/>
       <c r="J124" s="39"/>
       <c r="K124" s="39"/>
@@ -14159,7 +14177,7 @@
       <c r="CC124" s="39"/>
       <c r="CD124" s="39"/>
     </row>
-    <row r="125" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I125" s="38" t="s">
         <v>67</v>
       </c>
@@ -14243,7 +14261,7 @@
       <c r="CC125" s="38"/>
       <c r="CD125" s="38"/>
     </row>
-    <row r="126" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I126" s="38"/>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
@@ -14319,7 +14337,7 @@
       <c r="CC126" s="38"/>
       <c r="CD126" s="38"/>
     </row>
-    <row r="127" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I127" s="38"/>
       <c r="J127" s="38"/>
       <c r="K127" s="38"/>
@@ -14395,7 +14413,7 @@
       <c r="CC127" s="38"/>
       <c r="CD127" s="38"/>
     </row>
-    <row r="128" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I128" s="39" t="s">
         <v>20</v>
       </c>
@@ -14473,7 +14491,7 @@
       <c r="CC128" s="39"/>
       <c r="CD128" s="39"/>
     </row>
-    <row r="129" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I129" s="39"/>
       <c r="J129" s="39"/>
       <c r="K129" s="39"/>
@@ -14549,7 +14567,7 @@
       <c r="CC129" s="39"/>
       <c r="CD129" s="39"/>
     </row>
-    <row r="130" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I130" s="36"/>
       <c r="J130" s="36"/>
       <c r="K130" s="36"/>
@@ -14627,7 +14645,7 @@
       <c r="CC130" s="37"/>
       <c r="CD130" s="37"/>
     </row>
-    <row r="131" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I131" s="36"/>
       <c r="J131" s="36"/>
       <c r="K131" s="36"/>
@@ -14703,7 +14721,7 @@
       <c r="CC131" s="37"/>
       <c r="CD131" s="37"/>
     </row>
-    <row r="132" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I132" s="36"/>
       <c r="J132" s="36"/>
       <c r="K132" s="36"/>
@@ -14779,7 +14797,7 @@
       <c r="CC132" s="37"/>
       <c r="CD132" s="37"/>
     </row>
-    <row r="133" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I133" s="36"/>
       <c r="J133" s="36"/>
       <c r="K133" s="36"/>
@@ -14855,7 +14873,7 @@
       <c r="CC133" s="37"/>
       <c r="CD133" s="37"/>
     </row>
-    <row r="134" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I134" s="36"/>
       <c r="J134" s="36"/>
       <c r="K134" s="36"/>
@@ -14931,7 +14949,7 @@
       <c r="CC134" s="37"/>
       <c r="CD134" s="37"/>
     </row>
-    <row r="135" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I135" s="36"/>
       <c r="J135" s="36"/>
       <c r="K135" s="36"/>
@@ -15007,7 +15025,7 @@
       <c r="CC135" s="37"/>
       <c r="CD135" s="37"/>
     </row>
-    <row r="136" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
       <c r="K136" s="36"/>
@@ -15083,7 +15101,7 @@
       <c r="CC136" s="37"/>
       <c r="CD136" s="37"/>
     </row>
-    <row r="137" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
       <c r="K137" s="36"/>
@@ -15159,7 +15177,7 @@
       <c r="CC137" s="37"/>
       <c r="CD137" s="37"/>
     </row>
-    <row r="138" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
       <c r="K138" s="36"/>
@@ -15235,7 +15253,7 @@
       <c r="CC138" s="37"/>
       <c r="CD138" s="37"/>
     </row>
-    <row r="139" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="139" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
@@ -15311,7 +15329,7 @@
       <c r="CC139" s="37"/>
       <c r="CD139" s="37"/>
     </row>
-    <row r="140" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="140" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
       <c r="K140" s="36"/>
@@ -15387,7 +15405,7 @@
       <c r="CC140" s="37"/>
       <c r="CD140" s="37"/>
     </row>
-    <row r="141" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="141" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
       <c r="K141" s="36"/>
@@ -15463,7 +15481,7 @@
       <c r="CC141" s="37"/>
       <c r="CD141" s="37"/>
     </row>
-    <row r="142" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I142" s="36"/>
       <c r="J142" s="36"/>
       <c r="K142" s="36"/>
@@ -15539,7 +15557,7 @@
       <c r="CC142" s="37"/>
       <c r="CD142" s="37"/>
     </row>
-    <row r="143" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I143" s="36"/>
       <c r="J143" s="36"/>
       <c r="K143" s="36"/>
@@ -15615,7 +15633,7 @@
       <c r="CC143" s="37"/>
       <c r="CD143" s="37"/>
     </row>
-    <row r="144" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I144" s="36"/>
       <c r="J144" s="36"/>
       <c r="K144" s="36"/>
@@ -15691,7 +15709,7 @@
       <c r="CC144" s="37"/>
       <c r="CD144" s="37"/>
     </row>
-    <row r="145" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I145" s="36"/>
       <c r="J145" s="36"/>
       <c r="K145" s="36"/>
@@ -15767,7 +15785,7 @@
       <c r="CC145" s="37"/>
       <c r="CD145" s="37"/>
     </row>
-    <row r="146" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I146" s="36"/>
       <c r="J146" s="36"/>
       <c r="K146" s="36"/>
@@ -15843,7 +15861,7 @@
       <c r="CC146" s="37"/>
       <c r="CD146" s="37"/>
     </row>
-    <row r="147" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I147" s="36"/>
       <c r="J147" s="36"/>
       <c r="K147" s="36"/>
@@ -15919,8 +15937,8 @@
       <c r="CC147" s="37"/>
       <c r="CD147" s="37"/>
     </row>
-    <row r="150" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="151" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="151" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I151" s="39" t="s">
         <v>13</v>
       </c>
@@ -16004,7 +16022,7 @@
       <c r="CC151" s="39"/>
       <c r="CD151" s="39"/>
     </row>
-    <row r="152" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I152" s="39"/>
       <c r="J152" s="39"/>
       <c r="K152" s="39"/>
@@ -16080,7 +16098,7 @@
       <c r="CC152" s="39"/>
       <c r="CD152" s="39"/>
     </row>
-    <row r="153" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I153" s="38" t="s">
         <v>68</v>
       </c>
@@ -16164,7 +16182,7 @@
       <c r="CC153" s="38"/>
       <c r="CD153" s="38"/>
     </row>
-    <row r="154" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I154" s="38"/>
       <c r="J154" s="38"/>
       <c r="K154" s="38"/>
@@ -16240,7 +16258,7 @@
       <c r="CC154" s="38"/>
       <c r="CD154" s="38"/>
     </row>
-    <row r="155" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I155" s="38"/>
       <c r="J155" s="38"/>
       <c r="K155" s="38"/>
@@ -16316,7 +16334,7 @@
       <c r="CC155" s="38"/>
       <c r="CD155" s="38"/>
     </row>
-    <row r="156" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I156" s="39" t="s">
         <v>20</v>
       </c>
@@ -16394,7 +16412,7 @@
       <c r="CC156" s="39"/>
       <c r="CD156" s="39"/>
     </row>
-    <row r="157" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I157" s="39"/>
       <c r="J157" s="39"/>
       <c r="K157" s="39"/>
@@ -16470,7 +16488,7 @@
       <c r="CC157" s="39"/>
       <c r="CD157" s="39"/>
     </row>
-    <row r="158" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I158" s="36"/>
       <c r="J158" s="36"/>
       <c r="K158" s="36"/>
@@ -16548,7 +16566,7 @@
       <c r="CC158" s="37"/>
       <c r="CD158" s="37"/>
     </row>
-    <row r="159" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="159" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I159" s="36"/>
       <c r="J159" s="36"/>
       <c r="K159" s="36"/>
@@ -16624,7 +16642,7 @@
       <c r="CC159" s="37"/>
       <c r="CD159" s="37"/>
     </row>
-    <row r="160" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="160" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I160" s="36"/>
       <c r="J160" s="36"/>
       <c r="K160" s="36"/>
@@ -16700,7 +16718,7 @@
       <c r="CC160" s="37"/>
       <c r="CD160" s="37"/>
     </row>
-    <row r="161" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="161" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I161" s="36"/>
       <c r="J161" s="36"/>
       <c r="K161" s="36"/>
@@ -16776,7 +16794,7 @@
       <c r="CC161" s="37"/>
       <c r="CD161" s="37"/>
     </row>
-    <row r="162" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="162" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
       <c r="K162" s="36"/>
@@ -16852,7 +16870,7 @@
       <c r="CC162" s="37"/>
       <c r="CD162" s="37"/>
     </row>
-    <row r="163" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="163" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
       <c r="K163" s="36"/>
@@ -16928,7 +16946,7 @@
       <c r="CC163" s="37"/>
       <c r="CD163" s="37"/>
     </row>
-    <row r="164" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="164" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
       <c r="K164" s="36"/>
@@ -17004,7 +17022,7 @@
       <c r="CC164" s="37"/>
       <c r="CD164" s="37"/>
     </row>
-    <row r="165" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="165" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
       <c r="K165" s="36"/>
@@ -17080,7 +17098,7 @@
       <c r="CC165" s="37"/>
       <c r="CD165" s="37"/>
     </row>
-    <row r="166" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="166" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
       <c r="K166" s="36"/>
@@ -17156,7 +17174,7 @@
       <c r="CC166" s="37"/>
       <c r="CD166" s="37"/>
     </row>
-    <row r="167" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
       <c r="K167" s="36"/>
@@ -17232,7 +17250,7 @@
       <c r="CC167" s="37"/>
       <c r="CD167" s="37"/>
     </row>
-    <row r="168" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I168" s="36"/>
       <c r="J168" s="36"/>
       <c r="K168" s="36"/>
@@ -17308,7 +17326,7 @@
       <c r="CC168" s="37"/>
       <c r="CD168" s="37"/>
     </row>
-    <row r="169" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
       <c r="K169" s="36"/>
@@ -17384,7 +17402,7 @@
       <c r="CC169" s="37"/>
       <c r="CD169" s="37"/>
     </row>
-    <row r="170" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I170" s="36"/>
       <c r="J170" s="36"/>
       <c r="K170" s="36"/>
@@ -17460,7 +17478,7 @@
       <c r="CC170" s="37"/>
       <c r="CD170" s="37"/>
     </row>
-    <row r="171" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I171" s="36"/>
       <c r="J171" s="36"/>
       <c r="K171" s="36"/>
@@ -17536,7 +17554,7 @@
       <c r="CC171" s="37"/>
       <c r="CD171" s="37"/>
     </row>
-    <row r="172" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="172" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I172" s="36"/>
       <c r="J172" s="36"/>
       <c r="K172" s="36"/>
@@ -17612,7 +17630,7 @@
       <c r="CC172" s="37"/>
       <c r="CD172" s="37"/>
     </row>
-    <row r="173" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="173" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I173" s="36"/>
       <c r="J173" s="36"/>
       <c r="K173" s="36"/>
@@ -17688,7 +17706,7 @@
       <c r="CC173" s="37"/>
       <c r="CD173" s="37"/>
     </row>
-    <row r="174" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I174" s="36"/>
       <c r="J174" s="36"/>
       <c r="K174" s="36"/>
@@ -17764,7 +17782,7 @@
       <c r="CC174" s="37"/>
       <c r="CD174" s="37"/>
     </row>
-    <row r="175" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
       <c r="K175" s="36"/>
@@ -17840,8 +17858,8 @@
       <c r="CC175" s="37"/>
       <c r="CD175" s="37"/>
     </row>
-    <row r="178" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="179" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="179" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I179" s="39" t="s">
         <v>13</v>
       </c>
@@ -17925,7 +17943,7 @@
       <c r="CC179" s="39"/>
       <c r="CD179" s="39"/>
     </row>
-    <row r="180" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="180" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I180" s="39"/>
       <c r="J180" s="39"/>
       <c r="K180" s="39"/>
@@ -18001,7 +18019,7 @@
       <c r="CC180" s="39"/>
       <c r="CD180" s="39"/>
     </row>
-    <row r="181" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="181" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I181" s="38" t="s">
         <v>71</v>
       </c>
@@ -18085,7 +18103,7 @@
       <c r="CC181" s="38"/>
       <c r="CD181" s="38"/>
     </row>
-    <row r="182" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I182" s="38"/>
       <c r="J182" s="38"/>
       <c r="K182" s="38"/>
@@ -18161,7 +18179,7 @@
       <c r="CC182" s="38"/>
       <c r="CD182" s="38"/>
     </row>
-    <row r="183" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I183" s="38"/>
       <c r="J183" s="38"/>
       <c r="K183" s="38"/>
@@ -18237,7 +18255,7 @@
       <c r="CC183" s="38"/>
       <c r="CD183" s="38"/>
     </row>
-    <row r="184" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="184" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I184" s="39" t="s">
         <v>20</v>
       </c>
@@ -18315,7 +18333,7 @@
       <c r="CC184" s="39"/>
       <c r="CD184" s="39"/>
     </row>
-    <row r="185" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="185" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I185" s="39"/>
       <c r="J185" s="39"/>
       <c r="K185" s="39"/>
@@ -18391,7 +18409,7 @@
       <c r="CC185" s="39"/>
       <c r="CD185" s="39"/>
     </row>
-    <row r="186" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="186" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
       <c r="K186" s="36"/>
@@ -18469,7 +18487,7 @@
       <c r="CC186" s="37"/>
       <c r="CD186" s="37"/>
     </row>
-    <row r="187" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
       <c r="K187" s="36"/>
@@ -18545,7 +18563,7 @@
       <c r="CC187" s="37"/>
       <c r="CD187" s="37"/>
     </row>
-    <row r="188" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="188" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I188" s="36"/>
       <c r="J188" s="36"/>
       <c r="K188" s="36"/>
@@ -18621,7 +18639,7 @@
       <c r="CC188" s="37"/>
       <c r="CD188" s="37"/>
     </row>
-    <row r="189" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="189" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I189" s="36"/>
       <c r="J189" s="36"/>
       <c r="K189" s="36"/>
@@ -18697,7 +18715,7 @@
       <c r="CC189" s="37"/>
       <c r="CD189" s="37"/>
     </row>
-    <row r="190" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="190" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
       <c r="K190" s="36"/>
@@ -18773,7 +18791,7 @@
       <c r="CC190" s="37"/>
       <c r="CD190" s="37"/>
     </row>
-    <row r="191" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I191" s="36"/>
       <c r="J191" s="36"/>
       <c r="K191" s="36"/>
@@ -18849,7 +18867,7 @@
       <c r="CC191" s="37"/>
       <c r="CD191" s="37"/>
     </row>
-    <row r="192" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="192" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I192" s="36"/>
       <c r="J192" s="36"/>
       <c r="K192" s="36"/>
@@ -18925,7 +18943,7 @@
       <c r="CC192" s="37"/>
       <c r="CD192" s="37"/>
     </row>
-    <row r="193" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="193" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
       <c r="K193" s="36"/>
@@ -19001,7 +19019,7 @@
       <c r="CC193" s="37"/>
       <c r="CD193" s="37"/>
     </row>
-    <row r="194" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="194" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I194" s="36"/>
       <c r="J194" s="36"/>
       <c r="K194" s="36"/>
@@ -19077,7 +19095,7 @@
       <c r="CC194" s="37"/>
       <c r="CD194" s="37"/>
     </row>
-    <row r="195" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="195" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
       <c r="K195" s="36"/>
@@ -19153,7 +19171,7 @@
       <c r="CC195" s="37"/>
       <c r="CD195" s="37"/>
     </row>
-    <row r="196" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="196" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
       <c r="K196" s="36"/>
@@ -19229,7 +19247,7 @@
       <c r="CC196" s="37"/>
       <c r="CD196" s="37"/>
     </row>
-    <row r="197" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="197" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
       <c r="K197" s="36"/>
@@ -19305,7 +19323,7 @@
       <c r="CC197" s="37"/>
       <c r="CD197" s="37"/>
     </row>
-    <row r="198" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="198" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
       <c r="K198" s="36"/>
@@ -19381,7 +19399,7 @@
       <c r="CC198" s="37"/>
       <c r="CD198" s="37"/>
     </row>
-    <row r="199" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="199" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
@@ -19457,7 +19475,7 @@
       <c r="CC199" s="37"/>
       <c r="CD199" s="37"/>
     </row>
-    <row r="200" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="200" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
@@ -19533,7 +19551,7 @@
       <c r="CC200" s="37"/>
       <c r="CD200" s="37"/>
     </row>
-    <row r="201" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="201" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I201" s="36"/>
       <c r="J201" s="36"/>
       <c r="K201" s="36"/>
@@ -19609,7 +19627,7 @@
       <c r="CC201" s="37"/>
       <c r="CD201" s="37"/>
     </row>
-    <row r="202" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="202" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I202" s="36"/>
       <c r="J202" s="36"/>
       <c r="K202" s="36"/>
@@ -19685,7 +19703,7 @@
       <c r="CC202" s="37"/>
       <c r="CD202" s="37"/>
     </row>
-    <row r="203" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="203" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I203" s="36"/>
       <c r="J203" s="36"/>
       <c r="K203" s="36"/>
@@ -19761,8 +19779,8 @@
       <c r="CC203" s="37"/>
       <c r="CD203" s="37"/>
     </row>
-    <row r="206" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="207" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="206" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="207" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I207" s="39" t="s">
         <v>13</v>
       </c>
@@ -19846,7 +19864,7 @@
       <c r="CC207" s="39"/>
       <c r="CD207" s="39"/>
     </row>
-    <row r="208" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="208" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I208" s="39"/>
       <c r="J208" s="39"/>
       <c r="K208" s="39"/>
@@ -19922,7 +19940,7 @@
       <c r="CC208" s="39"/>
       <c r="CD208" s="39"/>
     </row>
-    <row r="209" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="209" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I209" s="38" t="s">
         <v>74</v>
       </c>
@@ -20006,7 +20024,7 @@
       <c r="CC209" s="38"/>
       <c r="CD209" s="38"/>
     </row>
-    <row r="210" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="210" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I210" s="38"/>
       <c r="J210" s="38"/>
       <c r="K210" s="38"/>
@@ -20082,7 +20100,7 @@
       <c r="CC210" s="38"/>
       <c r="CD210" s="38"/>
     </row>
-    <row r="211" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="211" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I211" s="38"/>
       <c r="J211" s="38"/>
       <c r="K211" s="38"/>
@@ -20158,7 +20176,7 @@
       <c r="CC211" s="38"/>
       <c r="CD211" s="38"/>
     </row>
-    <row r="212" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="212" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I212" s="39" t="s">
         <v>20</v>
       </c>
@@ -20236,7 +20254,7 @@
       <c r="CC212" s="39"/>
       <c r="CD212" s="39"/>
     </row>
-    <row r="213" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="213" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I213" s="39"/>
       <c r="J213" s="39"/>
       <c r="K213" s="39"/>
@@ -20312,7 +20330,7 @@
       <c r="CC213" s="39"/>
       <c r="CD213" s="39"/>
     </row>
-    <row r="214" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I214" s="36"/>
       <c r="J214" s="36"/>
       <c r="K214" s="36"/>
@@ -20390,7 +20408,7 @@
       <c r="CC214" s="37"/>
       <c r="CD214" s="37"/>
     </row>
-    <row r="215" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I215" s="36"/>
       <c r="J215" s="36"/>
       <c r="K215" s="36"/>
@@ -20466,7 +20484,7 @@
       <c r="CC215" s="37"/>
       <c r="CD215" s="37"/>
     </row>
-    <row r="216" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="216" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I216" s="36"/>
       <c r="J216" s="36"/>
       <c r="K216" s="36"/>
@@ -20542,7 +20560,7 @@
       <c r="CC216" s="37"/>
       <c r="CD216" s="37"/>
     </row>
-    <row r="217" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I217" s="36"/>
       <c r="J217" s="36"/>
       <c r="K217" s="36"/>
@@ -20618,7 +20636,7 @@
       <c r="CC217" s="37"/>
       <c r="CD217" s="37"/>
     </row>
-    <row r="218" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="218" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I218" s="36"/>
       <c r="J218" s="36"/>
       <c r="K218" s="36"/>
@@ -20694,7 +20712,7 @@
       <c r="CC218" s="37"/>
       <c r="CD218" s="37"/>
     </row>
-    <row r="219" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="219" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I219" s="36"/>
       <c r="J219" s="36"/>
       <c r="K219" s="36"/>
@@ -20770,7 +20788,7 @@
       <c r="CC219" s="37"/>
       <c r="CD219" s="37"/>
     </row>
-    <row r="220" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="220" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I220" s="36"/>
       <c r="J220" s="36"/>
       <c r="K220" s="36"/>
@@ -20846,7 +20864,7 @@
       <c r="CC220" s="37"/>
       <c r="CD220" s="37"/>
     </row>
-    <row r="221" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="221" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I221" s="36"/>
       <c r="J221" s="36"/>
       <c r="K221" s="36"/>
@@ -20922,7 +20940,7 @@
       <c r="CC221" s="37"/>
       <c r="CD221" s="37"/>
     </row>
-    <row r="222" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="222" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I222" s="36"/>
       <c r="J222" s="36"/>
       <c r="K222" s="36"/>
@@ -20998,7 +21016,7 @@
       <c r="CC222" s="37"/>
       <c r="CD222" s="37"/>
     </row>
-    <row r="223" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="223" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I223" s="36"/>
       <c r="J223" s="36"/>
       <c r="K223" s="36"/>
@@ -21074,7 +21092,7 @@
       <c r="CC223" s="37"/>
       <c r="CD223" s="37"/>
     </row>
-    <row r="224" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="224" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I224" s="36"/>
       <c r="J224" s="36"/>
       <c r="K224" s="36"/>
@@ -21150,7 +21168,7 @@
       <c r="CC224" s="37"/>
       <c r="CD224" s="37"/>
     </row>
-    <row r="225" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="225" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I225" s="36"/>
       <c r="J225" s="36"/>
       <c r="K225" s="36"/>
@@ -21226,7 +21244,7 @@
       <c r="CC225" s="37"/>
       <c r="CD225" s="37"/>
     </row>
-    <row r="226" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="226" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I226" s="36"/>
       <c r="J226" s="36"/>
       <c r="K226" s="36"/>
@@ -21302,7 +21320,7 @@
       <c r="CC226" s="37"/>
       <c r="CD226" s="37"/>
     </row>
-    <row r="227" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="227" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I227" s="36"/>
       <c r="J227" s="36"/>
       <c r="K227" s="36"/>
@@ -21378,7 +21396,7 @@
       <c r="CC227" s="37"/>
       <c r="CD227" s="37"/>
     </row>
-    <row r="228" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="228" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I228" s="36"/>
       <c r="J228" s="36"/>
       <c r="K228" s="36"/>
@@ -21454,7 +21472,7 @@
       <c r="CC228" s="37"/>
       <c r="CD228" s="37"/>
     </row>
-    <row r="229" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="229" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I229" s="36"/>
       <c r="J229" s="36"/>
       <c r="K229" s="36"/>
@@ -21530,7 +21548,7 @@
       <c r="CC229" s="37"/>
       <c r="CD229" s="37"/>
     </row>
-    <row r="230" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="230" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I230" s="36"/>
       <c r="J230" s="36"/>
       <c r="K230" s="36"/>
@@ -21606,7 +21624,7 @@
       <c r="CC230" s="37"/>
       <c r="CD230" s="37"/>
     </row>
-    <row r="231" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="231" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I231" s="36"/>
       <c r="J231" s="36"/>
       <c r="K231" s="36"/>
@@ -21682,8 +21700,8 @@
       <c r="CC231" s="37"/>
       <c r="CD231" s="37"/>
     </row>
-    <row r="234" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="235" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="234" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="235" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I235" s="39" t="s">
         <v>13</v>
       </c>
@@ -21767,7 +21785,7 @@
       <c r="CC235" s="39"/>
       <c r="CD235" s="39"/>
     </row>
-    <row r="236" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="236" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I236" s="39"/>
       <c r="J236" s="39"/>
       <c r="K236" s="39"/>
@@ -21843,7 +21861,7 @@
       <c r="CC236" s="39"/>
       <c r="CD236" s="39"/>
     </row>
-    <row r="237" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="237" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I237" s="38" t="s">
         <v>79</v>
       </c>
@@ -21927,7 +21945,7 @@
       <c r="CC237" s="38"/>
       <c r="CD237" s="38"/>
     </row>
-    <row r="238" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="238" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I238" s="38"/>
       <c r="J238" s="38"/>
       <c r="K238" s="38"/>
@@ -22003,7 +22021,7 @@
       <c r="CC238" s="38"/>
       <c r="CD238" s="38"/>
     </row>
-    <row r="239" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I239" s="38"/>
       <c r="J239" s="38"/>
       <c r="K239" s="38"/>
@@ -22079,7 +22097,7 @@
       <c r="CC239" s="38"/>
       <c r="CD239" s="38"/>
     </row>
-    <row r="240" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="240" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I240" s="39" t="s">
         <v>20</v>
       </c>
@@ -22157,7 +22175,7 @@
       <c r="CC240" s="39"/>
       <c r="CD240" s="39"/>
     </row>
-    <row r="241" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="241" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I241" s="39"/>
       <c r="J241" s="39"/>
       <c r="K241" s="39"/>
@@ -22233,7 +22251,7 @@
       <c r="CC241" s="39"/>
       <c r="CD241" s="39"/>
     </row>
-    <row r="242" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="242" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I242" s="36"/>
       <c r="J242" s="36"/>
       <c r="K242" s="36"/>
@@ -22311,7 +22329,7 @@
       <c r="CC242" s="37"/>
       <c r="CD242" s="37"/>
     </row>
-    <row r="243" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="243" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I243" s="36"/>
       <c r="J243" s="36"/>
       <c r="K243" s="36"/>
@@ -22387,7 +22405,7 @@
       <c r="CC243" s="37"/>
       <c r="CD243" s="37"/>
     </row>
-    <row r="244" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="244" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I244" s="36"/>
       <c r="J244" s="36"/>
       <c r="K244" s="36"/>
@@ -22463,7 +22481,7 @@
       <c r="CC244" s="37"/>
       <c r="CD244" s="37"/>
     </row>
-    <row r="245" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I245" s="36"/>
       <c r="J245" s="36"/>
       <c r="K245" s="36"/>
@@ -22539,7 +22557,7 @@
       <c r="CC245" s="37"/>
       <c r="CD245" s="37"/>
     </row>
-    <row r="246" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="246" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I246" s="36"/>
       <c r="J246" s="36"/>
       <c r="K246" s="36"/>
@@ -22615,7 +22633,7 @@
       <c r="CC246" s="37"/>
       <c r="CD246" s="37"/>
     </row>
-    <row r="247" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="247" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I247" s="36"/>
       <c r="J247" s="36"/>
       <c r="K247" s="36"/>
@@ -22691,7 +22709,7 @@
       <c r="CC247" s="37"/>
       <c r="CD247" s="37"/>
     </row>
-    <row r="248" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="248" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I248" s="36"/>
       <c r="J248" s="36"/>
       <c r="K248" s="36"/>
@@ -22767,7 +22785,7 @@
       <c r="CC248" s="37"/>
       <c r="CD248" s="37"/>
     </row>
-    <row r="249" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="249" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I249" s="36"/>
       <c r="J249" s="36"/>
       <c r="K249" s="36"/>
@@ -22843,7 +22861,7 @@
       <c r="CC249" s="37"/>
       <c r="CD249" s="37"/>
     </row>
-    <row r="250" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="250" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I250" s="36"/>
       <c r="J250" s="36"/>
       <c r="K250" s="36"/>
@@ -22919,7 +22937,7 @@
       <c r="CC250" s="37"/>
       <c r="CD250" s="37"/>
     </row>
-    <row r="251" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="251" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I251" s="36"/>
       <c r="J251" s="36"/>
       <c r="K251" s="36"/>
@@ -22995,7 +23013,7 @@
       <c r="CC251" s="37"/>
       <c r="CD251" s="37"/>
     </row>
-    <row r="252" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="252" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I252" s="36"/>
       <c r="J252" s="36"/>
       <c r="K252" s="36"/>
@@ -23071,7 +23089,7 @@
       <c r="CC252" s="37"/>
       <c r="CD252" s="37"/>
     </row>
-    <row r="253" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="253" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I253" s="36"/>
       <c r="J253" s="36"/>
       <c r="K253" s="36"/>
@@ -23147,7 +23165,7 @@
       <c r="CC253" s="37"/>
       <c r="CD253" s="37"/>
     </row>
-    <row r="254" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="254" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I254" s="36"/>
       <c r="J254" s="36"/>
       <c r="K254" s="36"/>
@@ -23223,7 +23241,7 @@
       <c r="CC254" s="37"/>
       <c r="CD254" s="37"/>
     </row>
-    <row r="255" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="255" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I255" s="36"/>
       <c r="J255" s="36"/>
       <c r="K255" s="36"/>
@@ -23299,7 +23317,7 @@
       <c r="CC255" s="37"/>
       <c r="CD255" s="37"/>
     </row>
-    <row r="256" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="256" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I256" s="36"/>
       <c r="J256" s="36"/>
       <c r="K256" s="36"/>
@@ -23375,7 +23393,7 @@
       <c r="CC256" s="37"/>
       <c r="CD256" s="37"/>
     </row>
-    <row r="257" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="257" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I257" s="36"/>
       <c r="J257" s="36"/>
       <c r="K257" s="36"/>
@@ -23451,7 +23469,7 @@
       <c r="CC257" s="37"/>
       <c r="CD257" s="37"/>
     </row>
-    <row r="258" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="258" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I258" s="36"/>
       <c r="J258" s="36"/>
       <c r="K258" s="36"/>
@@ -23527,7 +23545,7 @@
       <c r="CC258" s="37"/>
       <c r="CD258" s="37"/>
     </row>
-    <row r="259" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="259" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I259" s="36"/>
       <c r="J259" s="36"/>
       <c r="K259" s="36"/>
@@ -23603,8 +23621,8 @@
       <c r="CC259" s="37"/>
       <c r="CD259" s="37"/>
     </row>
-    <row r="262" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="263" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="263" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I263" s="39" t="s">
         <v>13</v>
       </c>
@@ -23688,7 +23706,7 @@
       <c r="CC263" s="39"/>
       <c r="CD263" s="39"/>
     </row>
-    <row r="264" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="264" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I264" s="39"/>
       <c r="J264" s="39"/>
       <c r="K264" s="39"/>
@@ -23764,7 +23782,7 @@
       <c r="CC264" s="39"/>
       <c r="CD264" s="39"/>
     </row>
-    <row r="265" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="265" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I265" s="38" t="s">
         <v>80</v>
       </c>
@@ -23848,7 +23866,7 @@
       <c r="CC265" s="38"/>
       <c r="CD265" s="38"/>
     </row>
-    <row r="266" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="266" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I266" s="38"/>
       <c r="J266" s="38"/>
       <c r="K266" s="38"/>
@@ -23924,7 +23942,7 @@
       <c r="CC266" s="38"/>
       <c r="CD266" s="38"/>
     </row>
-    <row r="267" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="267" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I267" s="38"/>
       <c r="J267" s="38"/>
       <c r="K267" s="38"/>
@@ -24000,7 +24018,7 @@
       <c r="CC267" s="38"/>
       <c r="CD267" s="38"/>
     </row>
-    <row r="268" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="268" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I268" s="39" t="s">
         <v>20</v>
       </c>
@@ -24078,7 +24096,7 @@
       <c r="CC268" s="39"/>
       <c r="CD268" s="39"/>
     </row>
-    <row r="269" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="269" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I269" s="39"/>
       <c r="J269" s="39"/>
       <c r="K269" s="39"/>
@@ -24154,7 +24172,7 @@
       <c r="CC269" s="39"/>
       <c r="CD269" s="39"/>
     </row>
-    <row r="270" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="270" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I270" s="36"/>
       <c r="J270" s="36"/>
       <c r="K270" s="36"/>
@@ -24232,7 +24250,7 @@
       <c r="CC270" s="37"/>
       <c r="CD270" s="37"/>
     </row>
-    <row r="271" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="271" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I271" s="36"/>
       <c r="J271" s="36"/>
       <c r="K271" s="36"/>
@@ -24308,7 +24326,7 @@
       <c r="CC271" s="37"/>
       <c r="CD271" s="37"/>
     </row>
-    <row r="272" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="272" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I272" s="36"/>
       <c r="J272" s="36"/>
       <c r="K272" s="36"/>
@@ -24384,7 +24402,7 @@
       <c r="CC272" s="37"/>
       <c r="CD272" s="37"/>
     </row>
-    <row r="273" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="273" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I273" s="36"/>
       <c r="J273" s="36"/>
       <c r="K273" s="36"/>
@@ -24460,7 +24478,7 @@
       <c r="CC273" s="37"/>
       <c r="CD273" s="37"/>
     </row>
-    <row r="274" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="274" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I274" s="36"/>
       <c r="J274" s="36"/>
       <c r="K274" s="36"/>
@@ -24536,7 +24554,7 @@
       <c r="CC274" s="37"/>
       <c r="CD274" s="37"/>
     </row>
-    <row r="275" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I275" s="36"/>
       <c r="J275" s="36"/>
       <c r="K275" s="36"/>
@@ -24612,7 +24630,7 @@
       <c r="CC275" s="37"/>
       <c r="CD275" s="37"/>
     </row>
-    <row r="276" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="276" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I276" s="36"/>
       <c r="J276" s="36"/>
       <c r="K276" s="36"/>
@@ -24688,7 +24706,7 @@
       <c r="CC276" s="37"/>
       <c r="CD276" s="37"/>
     </row>
-    <row r="277" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I277" s="36"/>
       <c r="J277" s="36"/>
       <c r="K277" s="36"/>
@@ -24764,7 +24782,7 @@
       <c r="CC277" s="37"/>
       <c r="CD277" s="37"/>
     </row>
-    <row r="278" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I278" s="36"/>
       <c r="J278" s="36"/>
       <c r="K278" s="36"/>
@@ -24840,7 +24858,7 @@
       <c r="CC278" s="37"/>
       <c r="CD278" s="37"/>
     </row>
-    <row r="279" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="279" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I279" s="36"/>
       <c r="J279" s="36"/>
       <c r="K279" s="36"/>
@@ -24916,7 +24934,7 @@
       <c r="CC279" s="37"/>
       <c r="CD279" s="37"/>
     </row>
-    <row r="280" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="280" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I280" s="36"/>
       <c r="J280" s="36"/>
       <c r="K280" s="36"/>
@@ -24992,7 +25010,7 @@
       <c r="CC280" s="37"/>
       <c r="CD280" s="37"/>
     </row>
-    <row r="281" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="281" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I281" s="36"/>
       <c r="J281" s="36"/>
       <c r="K281" s="36"/>
@@ -25068,7 +25086,7 @@
       <c r="CC281" s="37"/>
       <c r="CD281" s="37"/>
     </row>
-    <row r="282" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="282" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I282" s="36"/>
       <c r="J282" s="36"/>
       <c r="K282" s="36"/>
@@ -25144,7 +25162,7 @@
       <c r="CC282" s="37"/>
       <c r="CD282" s="37"/>
     </row>
-    <row r="283" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="283" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I283" s="36"/>
       <c r="J283" s="36"/>
       <c r="K283" s="36"/>
@@ -25220,7 +25238,7 @@
       <c r="CC283" s="37"/>
       <c r="CD283" s="37"/>
     </row>
-    <row r="284" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I284" s="36"/>
       <c r="J284" s="36"/>
       <c r="K284" s="36"/>
@@ -25296,7 +25314,7 @@
       <c r="CC284" s="37"/>
       <c r="CD284" s="37"/>
     </row>
-    <row r="285" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="285" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I285" s="36"/>
       <c r="J285" s="36"/>
       <c r="K285" s="36"/>
@@ -25372,7 +25390,7 @@
       <c r="CC285" s="37"/>
       <c r="CD285" s="37"/>
     </row>
-    <row r="286" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="286" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I286" s="36"/>
       <c r="J286" s="36"/>
       <c r="K286" s="36"/>
@@ -25448,7 +25466,7 @@
       <c r="CC286" s="37"/>
       <c r="CD286" s="37"/>
     </row>
-    <row r="287" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I287" s="36"/>
       <c r="J287" s="36"/>
       <c r="K287" s="36"/>
@@ -25524,8 +25542,8 @@
       <c r="CC287" s="37"/>
       <c r="CD287" s="37"/>
     </row>
-    <row r="290" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="291" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="291" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I291" s="39" t="s">
         <v>13</v>
       </c>
@@ -25609,7 +25627,7 @@
       <c r="CC291" s="39"/>
       <c r="CD291" s="39"/>
     </row>
-    <row r="292" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="292" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I292" s="39"/>
       <c r="J292" s="39"/>
       <c r="K292" s="39"/>
@@ -25685,7 +25703,7 @@
       <c r="CC292" s="39"/>
       <c r="CD292" s="39"/>
     </row>
-    <row r="293" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="293" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I293" s="38" t="s">
         <v>85</v>
       </c>
@@ -25769,7 +25787,7 @@
       <c r="CC293" s="38"/>
       <c r="CD293" s="38"/>
     </row>
-    <row r="294" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="294" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I294" s="38"/>
       <c r="J294" s="38"/>
       <c r="K294" s="38"/>
@@ -25845,7 +25863,7 @@
       <c r="CC294" s="38"/>
       <c r="CD294" s="38"/>
     </row>
-    <row r="295" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="295" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I295" s="38"/>
       <c r="J295" s="38"/>
       <c r="K295" s="38"/>
@@ -25921,7 +25939,7 @@
       <c r="CC295" s="38"/>
       <c r="CD295" s="38"/>
     </row>
-    <row r="296" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="296" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I296" s="39" t="s">
         <v>20</v>
       </c>
@@ -25999,7 +26017,7 @@
       <c r="CC296" s="39"/>
       <c r="CD296" s="39"/>
     </row>
-    <row r="297" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="297" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I297" s="39"/>
       <c r="J297" s="39"/>
       <c r="K297" s="39"/>
@@ -26075,7 +26093,7 @@
       <c r="CC297" s="39"/>
       <c r="CD297" s="39"/>
     </row>
-    <row r="298" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="298" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I298" s="36"/>
       <c r="J298" s="36"/>
       <c r="K298" s="36"/>
@@ -26153,7 +26171,7 @@
       <c r="CC298" s="37"/>
       <c r="CD298" s="37"/>
     </row>
-    <row r="299" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="299" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I299" s="36"/>
       <c r="J299" s="36"/>
       <c r="K299" s="36"/>
@@ -26229,7 +26247,7 @@
       <c r="CC299" s="37"/>
       <c r="CD299" s="37"/>
     </row>
-    <row r="300" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="300" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I300" s="36"/>
       <c r="J300" s="36"/>
       <c r="K300" s="36"/>
@@ -26305,7 +26323,7 @@
       <c r="CC300" s="37"/>
       <c r="CD300" s="37"/>
     </row>
-    <row r="301" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="301" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I301" s="36"/>
       <c r="J301" s="36"/>
       <c r="K301" s="36"/>
@@ -26381,7 +26399,7 @@
       <c r="CC301" s="37"/>
       <c r="CD301" s="37"/>
     </row>
-    <row r="302" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="302" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I302" s="36"/>
       <c r="J302" s="36"/>
       <c r="K302" s="36"/>
@@ -26457,7 +26475,7 @@
       <c r="CC302" s="37"/>
       <c r="CD302" s="37"/>
     </row>
-    <row r="303" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="303" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I303" s="36"/>
       <c r="J303" s="36"/>
       <c r="K303" s="36"/>
@@ -26533,7 +26551,7 @@
       <c r="CC303" s="37"/>
       <c r="CD303" s="37"/>
     </row>
-    <row r="304" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="304" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I304" s="36"/>
       <c r="J304" s="36"/>
       <c r="K304" s="36"/>
@@ -26609,7 +26627,7 @@
       <c r="CC304" s="37"/>
       <c r="CD304" s="37"/>
     </row>
-    <row r="305" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="305" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I305" s="36"/>
       <c r="J305" s="36"/>
       <c r="K305" s="36"/>
@@ -26685,7 +26703,7 @@
       <c r="CC305" s="37"/>
       <c r="CD305" s="37"/>
     </row>
-    <row r="306" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="306" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I306" s="36"/>
       <c r="J306" s="36"/>
       <c r="K306" s="36"/>
@@ -26761,7 +26779,7 @@
       <c r="CC306" s="37"/>
       <c r="CD306" s="37"/>
     </row>
-    <row r="307" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="307" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I307" s="36"/>
       <c r="J307" s="36"/>
       <c r="K307" s="36"/>
@@ -26837,7 +26855,7 @@
       <c r="CC307" s="37"/>
       <c r="CD307" s="37"/>
     </row>
-    <row r="308" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="308" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I308" s="36"/>
       <c r="J308" s="36"/>
       <c r="K308" s="36"/>
@@ -26913,7 +26931,7 @@
       <c r="CC308" s="37"/>
       <c r="CD308" s="37"/>
     </row>
-    <row r="309" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="309" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I309" s="36"/>
       <c r="J309" s="36"/>
       <c r="K309" s="36"/>
@@ -26989,7 +27007,7 @@
       <c r="CC309" s="37"/>
       <c r="CD309" s="37"/>
     </row>
-    <row r="310" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="310" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I310" s="36"/>
       <c r="J310" s="36"/>
       <c r="K310" s="36"/>
@@ -27065,7 +27083,7 @@
       <c r="CC310" s="37"/>
       <c r="CD310" s="37"/>
     </row>
-    <row r="311" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="311" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I311" s="36"/>
       <c r="J311" s="36"/>
       <c r="K311" s="36"/>
@@ -27141,7 +27159,7 @@
       <c r="CC311" s="37"/>
       <c r="CD311" s="37"/>
     </row>
-    <row r="312" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="312" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I312" s="36"/>
       <c r="J312" s="36"/>
       <c r="K312" s="36"/>
@@ -27217,7 +27235,7 @@
       <c r="CC312" s="37"/>
       <c r="CD312" s="37"/>
     </row>
-    <row r="313" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="313" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I313" s="36"/>
       <c r="J313" s="36"/>
       <c r="K313" s="36"/>
@@ -27293,7 +27311,7 @@
       <c r="CC313" s="37"/>
       <c r="CD313" s="37"/>
     </row>
-    <row r="314" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="314" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I314" s="36"/>
       <c r="J314" s="36"/>
       <c r="K314" s="36"/>
@@ -27369,7 +27387,7 @@
       <c r="CC314" s="37"/>
       <c r="CD314" s="37"/>
     </row>
-    <row r="315" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="315" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I315" s="36"/>
       <c r="J315" s="36"/>
       <c r="K315" s="36"/>
@@ -27445,8 +27463,8 @@
       <c r="CC315" s="37"/>
       <c r="CD315" s="37"/>
     </row>
-    <row r="318" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="319" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="318" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="319" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I319" s="39" t="s">
         <v>13</v>
       </c>
@@ -27530,7 +27548,7 @@
       <c r="CC319" s="39"/>
       <c r="CD319" s="39"/>
     </row>
-    <row r="320" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="320" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I320" s="39"/>
       <c r="J320" s="39"/>
       <c r="K320" s="39"/>
@@ -27606,7 +27624,7 @@
       <c r="CC320" s="39"/>
       <c r="CD320" s="39"/>
     </row>
-    <row r="321" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="321" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I321" s="38" t="s">
         <v>86</v>
       </c>
@@ -27690,7 +27708,7 @@
       <c r="CC321" s="38"/>
       <c r="CD321" s="38"/>
     </row>
-    <row r="322" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="322" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I322" s="38"/>
       <c r="J322" s="38"/>
       <c r="K322" s="38"/>
@@ -27766,7 +27784,7 @@
       <c r="CC322" s="38"/>
       <c r="CD322" s="38"/>
     </row>
-    <row r="323" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="323" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I323" s="38"/>
       <c r="J323" s="38"/>
       <c r="K323" s="38"/>
@@ -27842,7 +27860,7 @@
       <c r="CC323" s="38"/>
       <c r="CD323" s="38"/>
     </row>
-    <row r="324" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="324" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I324" s="39" t="s">
         <v>20</v>
       </c>
@@ -27920,7 +27938,7 @@
       <c r="CC324" s="39"/>
       <c r="CD324" s="39"/>
     </row>
-    <row r="325" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="325" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I325" s="39"/>
       <c r="J325" s="39"/>
       <c r="K325" s="39"/>
@@ -27996,7 +28014,7 @@
       <c r="CC325" s="39"/>
       <c r="CD325" s="39"/>
     </row>
-    <row r="326" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="326" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I326" s="36"/>
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
@@ -28074,7 +28092,7 @@
       <c r="CC326" s="37"/>
       <c r="CD326" s="37"/>
     </row>
-    <row r="327" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="327" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I327" s="36"/>
       <c r="J327" s="36"/>
       <c r="K327" s="36"/>
@@ -28150,7 +28168,7 @@
       <c r="CC327" s="37"/>
       <c r="CD327" s="37"/>
     </row>
-    <row r="328" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="328" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I328" s="36"/>
       <c r="J328" s="36"/>
       <c r="K328" s="36"/>
@@ -28226,7 +28244,7 @@
       <c r="CC328" s="37"/>
       <c r="CD328" s="37"/>
     </row>
-    <row r="329" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="329" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I329" s="36"/>
       <c r="J329" s="36"/>
       <c r="K329" s="36"/>
@@ -28302,7 +28320,7 @@
       <c r="CC329" s="37"/>
       <c r="CD329" s="37"/>
     </row>
-    <row r="330" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="330" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I330" s="36"/>
       <c r="J330" s="36"/>
       <c r="K330" s="36"/>
@@ -28378,7 +28396,7 @@
       <c r="CC330" s="37"/>
       <c r="CD330" s="37"/>
     </row>
-    <row r="331" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="331" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I331" s="36"/>
       <c r="J331" s="36"/>
       <c r="K331" s="36"/>
@@ -28454,7 +28472,7 @@
       <c r="CC331" s="37"/>
       <c r="CD331" s="37"/>
     </row>
-    <row r="332" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="332" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I332" s="36"/>
       <c r="J332" s="36"/>
       <c r="K332" s="36"/>
@@ -28530,7 +28548,7 @@
       <c r="CC332" s="37"/>
       <c r="CD332" s="37"/>
     </row>
-    <row r="333" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="333" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I333" s="36"/>
       <c r="J333" s="36"/>
       <c r="K333" s="36"/>
@@ -28606,7 +28624,7 @@
       <c r="CC333" s="37"/>
       <c r="CD333" s="37"/>
     </row>
-    <row r="334" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="334" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I334" s="36"/>
       <c r="J334" s="36"/>
       <c r="K334" s="36"/>
@@ -28682,7 +28700,7 @@
       <c r="CC334" s="37"/>
       <c r="CD334" s="37"/>
     </row>
-    <row r="335" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="335" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I335" s="36"/>
       <c r="J335" s="36"/>
       <c r="K335" s="36"/>
@@ -28758,7 +28776,7 @@
       <c r="CC335" s="37"/>
       <c r="CD335" s="37"/>
     </row>
-    <row r="336" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="336" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I336" s="36"/>
       <c r="J336" s="36"/>
       <c r="K336" s="36"/>
@@ -28834,7 +28852,7 @@
       <c r="CC336" s="37"/>
       <c r="CD336" s="37"/>
     </row>
-    <row r="337" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="337" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I337" s="36"/>
       <c r="J337" s="36"/>
       <c r="K337" s="36"/>
@@ -28910,7 +28928,7 @@
       <c r="CC337" s="37"/>
       <c r="CD337" s="37"/>
     </row>
-    <row r="338" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="338" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I338" s="36"/>
       <c r="J338" s="36"/>
       <c r="K338" s="36"/>
@@ -28986,7 +29004,7 @@
       <c r="CC338" s="37"/>
       <c r="CD338" s="37"/>
     </row>
-    <row r="339" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="339" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I339" s="36"/>
       <c r="J339" s="36"/>
       <c r="K339" s="36"/>
@@ -29062,7 +29080,7 @@
       <c r="CC339" s="37"/>
       <c r="CD339" s="37"/>
     </row>
-    <row r="340" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="340" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I340" s="36"/>
       <c r="J340" s="36"/>
       <c r="K340" s="36"/>
@@ -29138,7 +29156,7 @@
       <c r="CC340" s="37"/>
       <c r="CD340" s="37"/>
     </row>
-    <row r="341" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="341" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I341" s="36"/>
       <c r="J341" s="36"/>
       <c r="K341" s="36"/>
@@ -29214,7 +29232,7 @@
       <c r="CC341" s="37"/>
       <c r="CD341" s="37"/>
     </row>
-    <row r="342" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="342" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I342" s="36"/>
       <c r="J342" s="36"/>
       <c r="K342" s="36"/>
@@ -29290,7 +29308,7 @@
       <c r="CC342" s="37"/>
       <c r="CD342" s="37"/>
     </row>
-    <row r="343" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="343" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I343" s="36"/>
       <c r="J343" s="36"/>
       <c r="K343" s="36"/>
@@ -29366,8 +29384,8 @@
       <c r="CC343" s="37"/>
       <c r="CD343" s="37"/>
     </row>
-    <row r="346" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="347" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="346" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="347" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I347" s="39" t="s">
         <v>13</v>
       </c>
@@ -29451,7 +29469,7 @@
       <c r="CC347" s="39"/>
       <c r="CD347" s="39"/>
     </row>
-    <row r="348" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="348" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I348" s="39"/>
       <c r="J348" s="39"/>
       <c r="K348" s="39"/>
@@ -29527,7 +29545,7 @@
       <c r="CC348" s="39"/>
       <c r="CD348" s="39"/>
     </row>
-    <row r="349" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="349" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I349" s="38" t="s">
         <v>90</v>
       </c>
@@ -29611,7 +29629,7 @@
       <c r="CC349" s="38"/>
       <c r="CD349" s="38"/>
     </row>
-    <row r="350" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="350" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I350" s="38"/>
       <c r="J350" s="38"/>
       <c r="K350" s="38"/>
@@ -29687,7 +29705,7 @@
       <c r="CC350" s="38"/>
       <c r="CD350" s="38"/>
     </row>
-    <row r="351" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="351" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I351" s="38"/>
       <c r="J351" s="38"/>
       <c r="K351" s="38"/>
@@ -29763,7 +29781,7 @@
       <c r="CC351" s="38"/>
       <c r="CD351" s="38"/>
     </row>
-    <row r="352" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="352" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I352" s="39" t="s">
         <v>20</v>
       </c>
@@ -29841,7 +29859,7 @@
       <c r="CC352" s="39"/>
       <c r="CD352" s="39"/>
     </row>
-    <row r="353" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="353" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I353" s="39"/>
       <c r="J353" s="39"/>
       <c r="K353" s="39"/>
@@ -29917,7 +29935,7 @@
       <c r="CC353" s="39"/>
       <c r="CD353" s="39"/>
     </row>
-    <row r="354" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="354" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I354" s="36"/>
       <c r="J354" s="36"/>
       <c r="K354" s="36"/>
@@ -29995,7 +30013,7 @@
       <c r="CC354" s="37"/>
       <c r="CD354" s="37"/>
     </row>
-    <row r="355" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="355" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I355" s="36"/>
       <c r="J355" s="36"/>
       <c r="K355" s="36"/>
@@ -30071,7 +30089,7 @@
       <c r="CC355" s="37"/>
       <c r="CD355" s="37"/>
     </row>
-    <row r="356" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="356" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I356" s="36"/>
       <c r="J356" s="36"/>
       <c r="K356" s="36"/>
@@ -30147,7 +30165,7 @@
       <c r="CC356" s="37"/>
       <c r="CD356" s="37"/>
     </row>
-    <row r="357" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="357" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I357" s="36"/>
       <c r="J357" s="36"/>
       <c r="K357" s="36"/>
@@ -30223,7 +30241,7 @@
       <c r="CC357" s="37"/>
       <c r="CD357" s="37"/>
     </row>
-    <row r="358" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="358" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I358" s="36"/>
       <c r="J358" s="36"/>
       <c r="K358" s="36"/>
@@ -30299,7 +30317,7 @@
       <c r="CC358" s="37"/>
       <c r="CD358" s="37"/>
     </row>
-    <row r="359" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="359" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I359" s="36"/>
       <c r="J359" s="36"/>
       <c r="K359" s="36"/>
@@ -30375,7 +30393,7 @@
       <c r="CC359" s="37"/>
       <c r="CD359" s="37"/>
     </row>
-    <row r="360" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="360" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I360" s="36"/>
       <c r="J360" s="36"/>
       <c r="K360" s="36"/>
@@ -30451,7 +30469,7 @@
       <c r="CC360" s="37"/>
       <c r="CD360" s="37"/>
     </row>
-    <row r="361" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="361" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I361" s="36"/>
       <c r="J361" s="36"/>
       <c r="K361" s="36"/>
@@ -30527,7 +30545,7 @@
       <c r="CC361" s="37"/>
       <c r="CD361" s="37"/>
     </row>
-    <row r="362" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="362" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I362" s="36"/>
       <c r="J362" s="36"/>
       <c r="K362" s="36"/>
@@ -30603,7 +30621,7 @@
       <c r="CC362" s="37"/>
       <c r="CD362" s="37"/>
     </row>
-    <row r="363" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="363" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I363" s="36"/>
       <c r="J363" s="36"/>
       <c r="K363" s="36"/>
@@ -30679,7 +30697,7 @@
       <c r="CC363" s="37"/>
       <c r="CD363" s="37"/>
     </row>
-    <row r="364" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="364" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I364" s="36"/>
       <c r="J364" s="36"/>
       <c r="K364" s="36"/>
@@ -30755,7 +30773,7 @@
       <c r="CC364" s="37"/>
       <c r="CD364" s="37"/>
     </row>
-    <row r="365" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="365" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I365" s="36"/>
       <c r="J365" s="36"/>
       <c r="K365" s="36"/>
@@ -30831,7 +30849,7 @@
       <c r="CC365" s="37"/>
       <c r="CD365" s="37"/>
     </row>
-    <row r="366" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="366" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I366" s="36"/>
       <c r="J366" s="36"/>
       <c r="K366" s="36"/>
@@ -30907,7 +30925,7 @@
       <c r="CC366" s="37"/>
       <c r="CD366" s="37"/>
     </row>
-    <row r="367" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="367" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I367" s="36"/>
       <c r="J367" s="36"/>
       <c r="K367" s="36"/>
@@ -30983,7 +31001,7 @@
       <c r="CC367" s="37"/>
       <c r="CD367" s="37"/>
     </row>
-    <row r="368" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="368" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I368" s="36"/>
       <c r="J368" s="36"/>
       <c r="K368" s="36"/>
@@ -31059,7 +31077,7 @@
       <c r="CC368" s="37"/>
       <c r="CD368" s="37"/>
     </row>
-    <row r="369" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="369" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I369" s="36"/>
       <c r="J369" s="36"/>
       <c r="K369" s="36"/>
@@ -31135,7 +31153,7 @@
       <c r="CC369" s="37"/>
       <c r="CD369" s="37"/>
     </row>
-    <row r="370" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="370" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I370" s="36"/>
       <c r="J370" s="36"/>
       <c r="K370" s="36"/>
@@ -31211,7 +31229,7 @@
       <c r="CC370" s="37"/>
       <c r="CD370" s="37"/>
     </row>
-    <row r="371" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="371" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I371" s="36"/>
       <c r="J371" s="36"/>
       <c r="K371" s="36"/>
@@ -31287,8 +31305,8 @@
       <c r="CC371" s="37"/>
       <c r="CD371" s="37"/>
     </row>
-    <row r="374" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="375" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="374" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="375" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I375" s="39" t="s">
         <v>13</v>
       </c>
@@ -31372,7 +31390,7 @@
       <c r="CC375" s="39"/>
       <c r="CD375" s="39"/>
     </row>
-    <row r="376" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="376" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I376" s="39"/>
       <c r="J376" s="39"/>
       <c r="K376" s="39"/>
@@ -31448,7 +31466,7 @@
       <c r="CC376" s="39"/>
       <c r="CD376" s="39"/>
     </row>
-    <row r="377" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="377" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I377" s="38" t="s">
         <v>92</v>
       </c>
@@ -31532,7 +31550,7 @@
       <c r="CC377" s="38"/>
       <c r="CD377" s="38"/>
     </row>
-    <row r="378" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="378" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I378" s="38"/>
       <c r="J378" s="38"/>
       <c r="K378" s="38"/>
@@ -31608,7 +31626,7 @@
       <c r="CC378" s="38"/>
       <c r="CD378" s="38"/>
     </row>
-    <row r="379" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="379" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I379" s="38"/>
       <c r="J379" s="38"/>
       <c r="K379" s="38"/>
@@ -31684,7 +31702,7 @@
       <c r="CC379" s="38"/>
       <c r="CD379" s="38"/>
     </row>
-    <row r="380" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="380" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I380" s="39" t="s">
         <v>20</v>
       </c>
@@ -31762,7 +31780,7 @@
       <c r="CC380" s="39"/>
       <c r="CD380" s="39"/>
     </row>
-    <row r="381" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="381" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I381" s="39"/>
       <c r="J381" s="39"/>
       <c r="K381" s="39"/>
@@ -31838,7 +31856,7 @@
       <c r="CC381" s="39"/>
       <c r="CD381" s="39"/>
     </row>
-    <row r="382" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="382" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I382" s="36"/>
       <c r="J382" s="36"/>
       <c r="K382" s="36"/>
@@ -31916,7 +31934,7 @@
       <c r="CC382" s="37"/>
       <c r="CD382" s="37"/>
     </row>
-    <row r="383" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="383" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I383" s="36"/>
       <c r="J383" s="36"/>
       <c r="K383" s="36"/>
@@ -31992,7 +32010,7 @@
       <c r="CC383" s="37"/>
       <c r="CD383" s="37"/>
     </row>
-    <row r="384" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="384" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I384" s="36"/>
       <c r="J384" s="36"/>
       <c r="K384" s="36"/>
@@ -32068,7 +32086,7 @@
       <c r="CC384" s="37"/>
       <c r="CD384" s="37"/>
     </row>
-    <row r="385" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="385" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I385" s="36"/>
       <c r="J385" s="36"/>
       <c r="K385" s="36"/>
@@ -32144,7 +32162,7 @@
       <c r="CC385" s="37"/>
       <c r="CD385" s="37"/>
     </row>
-    <row r="386" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="386" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I386" s="36"/>
       <c r="J386" s="36"/>
       <c r="K386" s="36"/>
@@ -32220,7 +32238,7 @@
       <c r="CC386" s="37"/>
       <c r="CD386" s="37"/>
     </row>
-    <row r="387" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="387" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I387" s="36"/>
       <c r="J387" s="36"/>
       <c r="K387" s="36"/>
@@ -32296,7 +32314,7 @@
       <c r="CC387" s="37"/>
       <c r="CD387" s="37"/>
     </row>
-    <row r="388" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="388" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I388" s="36"/>
       <c r="J388" s="36"/>
       <c r="K388" s="36"/>
@@ -32372,7 +32390,7 @@
       <c r="CC388" s="37"/>
       <c r="CD388" s="37"/>
     </row>
-    <row r="389" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="389" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I389" s="36"/>
       <c r="J389" s="36"/>
       <c r="K389" s="36"/>
@@ -32448,7 +32466,7 @@
       <c r="CC389" s="37"/>
       <c r="CD389" s="37"/>
     </row>
-    <row r="390" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="390" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I390" s="36"/>
       <c r="J390" s="36"/>
       <c r="K390" s="36"/>
@@ -32524,7 +32542,7 @@
       <c r="CC390" s="37"/>
       <c r="CD390" s="37"/>
     </row>
-    <row r="391" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="391" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I391" s="36"/>
       <c r="J391" s="36"/>
       <c r="K391" s="36"/>
@@ -32600,7 +32618,7 @@
       <c r="CC391" s="37"/>
       <c r="CD391" s="37"/>
     </row>
-    <row r="392" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="392" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I392" s="36"/>
       <c r="J392" s="36"/>
       <c r="K392" s="36"/>
@@ -32676,7 +32694,7 @@
       <c r="CC392" s="37"/>
       <c r="CD392" s="37"/>
     </row>
-    <row r="393" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="393" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I393" s="36"/>
       <c r="J393" s="36"/>
       <c r="K393" s="36"/>
@@ -32752,7 +32770,7 @@
       <c r="CC393" s="37"/>
       <c r="CD393" s="37"/>
     </row>
-    <row r="394" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="394" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I394" s="36"/>
       <c r="J394" s="36"/>
       <c r="K394" s="36"/>
@@ -32828,7 +32846,7 @@
       <c r="CC394" s="37"/>
       <c r="CD394" s="37"/>
     </row>
-    <row r="395" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="395" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I395" s="36"/>
       <c r="J395" s="36"/>
       <c r="K395" s="36"/>
@@ -32904,7 +32922,7 @@
       <c r="CC395" s="37"/>
       <c r="CD395" s="37"/>
     </row>
-    <row r="396" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="396" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I396" s="36"/>
       <c r="J396" s="36"/>
       <c r="K396" s="36"/>
@@ -32980,7 +32998,7 @@
       <c r="CC396" s="37"/>
       <c r="CD396" s="37"/>
     </row>
-    <row r="397" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="397" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I397" s="36"/>
       <c r="J397" s="36"/>
       <c r="K397" s="36"/>
@@ -33056,7 +33074,7 @@
       <c r="CC397" s="37"/>
       <c r="CD397" s="37"/>
     </row>
-    <row r="398" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="398" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I398" s="36"/>
       <c r="J398" s="36"/>
       <c r="K398" s="36"/>
@@ -33132,7 +33150,7 @@
       <c r="CC398" s="37"/>
       <c r="CD398" s="37"/>
     </row>
-    <row r="399" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="399" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I399" s="36"/>
       <c r="J399" s="36"/>
       <c r="K399" s="36"/>
@@ -33208,8 +33226,8 @@
       <c r="CC399" s="37"/>
       <c r="CD399" s="37"/>
     </row>
-    <row r="402" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="403" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="402" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="403" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I403" s="39" t="s">
         <v>13</v>
       </c>
@@ -33293,7 +33311,7 @@
       <c r="CC403" s="39"/>
       <c r="CD403" s="39"/>
     </row>
-    <row r="404" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="404" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I404" s="39"/>
       <c r="J404" s="39"/>
       <c r="K404" s="39"/>
@@ -33369,7 +33387,7 @@
       <c r="CC404" s="39"/>
       <c r="CD404" s="39"/>
     </row>
-    <row r="405" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="405" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I405" s="38" t="s">
         <v>93</v>
       </c>
@@ -33453,7 +33471,7 @@
       <c r="CC405" s="38"/>
       <c r="CD405" s="38"/>
     </row>
-    <row r="406" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="406" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I406" s="38"/>
       <c r="J406" s="38"/>
       <c r="K406" s="38"/>
@@ -33529,7 +33547,7 @@
       <c r="CC406" s="38"/>
       <c r="CD406" s="38"/>
     </row>
-    <row r="407" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="407" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I407" s="38"/>
       <c r="J407" s="38"/>
       <c r="K407" s="38"/>
@@ -33605,7 +33623,7 @@
       <c r="CC407" s="38"/>
       <c r="CD407" s="38"/>
     </row>
-    <row r="408" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="408" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I408" s="39" t="s">
         <v>20</v>
       </c>
@@ -33683,7 +33701,7 @@
       <c r="CC408" s="39"/>
       <c r="CD408" s="39"/>
     </row>
-    <row r="409" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="409" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I409" s="39"/>
       <c r="J409" s="39"/>
       <c r="K409" s="39"/>
@@ -33759,7 +33777,7 @@
       <c r="CC409" s="39"/>
       <c r="CD409" s="39"/>
     </row>
-    <row r="410" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="410" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I410" s="36"/>
       <c r="J410" s="36"/>
       <c r="K410" s="36"/>
@@ -33837,7 +33855,7 @@
       <c r="CC410" s="37"/>
       <c r="CD410" s="37"/>
     </row>
-    <row r="411" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="411" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I411" s="36"/>
       <c r="J411" s="36"/>
       <c r="K411" s="36"/>
@@ -33913,7 +33931,7 @@
       <c r="CC411" s="37"/>
       <c r="CD411" s="37"/>
     </row>
-    <row r="412" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="412" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I412" s="36"/>
       <c r="J412" s="36"/>
       <c r="K412" s="36"/>
@@ -33989,7 +34007,7 @@
       <c r="CC412" s="37"/>
       <c r="CD412" s="37"/>
     </row>
-    <row r="413" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="413" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I413" s="36"/>
       <c r="J413" s="36"/>
       <c r="K413" s="36"/>
@@ -34065,7 +34083,7 @@
       <c r="CC413" s="37"/>
       <c r="CD413" s="37"/>
     </row>
-    <row r="414" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="414" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I414" s="36"/>
       <c r="J414" s="36"/>
       <c r="K414" s="36"/>
@@ -34141,7 +34159,7 @@
       <c r="CC414" s="37"/>
       <c r="CD414" s="37"/>
     </row>
-    <row r="415" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="415" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I415" s="36"/>
       <c r="J415" s="36"/>
       <c r="K415" s="36"/>
@@ -34217,7 +34235,7 @@
       <c r="CC415" s="37"/>
       <c r="CD415" s="37"/>
     </row>
-    <row r="416" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="416" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I416" s="36"/>
       <c r="J416" s="36"/>
       <c r="K416" s="36"/>
@@ -34293,7 +34311,7 @@
       <c r="CC416" s="37"/>
       <c r="CD416" s="37"/>
     </row>
-    <row r="417" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="417" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I417" s="36"/>
       <c r="J417" s="36"/>
       <c r="K417" s="36"/>
@@ -34369,7 +34387,7 @@
       <c r="CC417" s="37"/>
       <c r="CD417" s="37"/>
     </row>
-    <row r="418" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="418" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I418" s="36"/>
       <c r="J418" s="36"/>
       <c r="K418" s="36"/>
@@ -34445,7 +34463,7 @@
       <c r="CC418" s="37"/>
       <c r="CD418" s="37"/>
     </row>
-    <row r="419" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="419" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I419" s="36"/>
       <c r="J419" s="36"/>
       <c r="K419" s="36"/>
@@ -34521,7 +34539,7 @@
       <c r="CC419" s="37"/>
       <c r="CD419" s="37"/>
     </row>
-    <row r="420" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="420" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I420" s="36"/>
       <c r="J420" s="36"/>
       <c r="K420" s="36"/>
@@ -34597,7 +34615,7 @@
       <c r="CC420" s="37"/>
       <c r="CD420" s="37"/>
     </row>
-    <row r="421" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="421" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I421" s="36"/>
       <c r="J421" s="36"/>
       <c r="K421" s="36"/>
@@ -34673,7 +34691,7 @@
       <c r="CC421" s="37"/>
       <c r="CD421" s="37"/>
     </row>
-    <row r="422" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="422" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I422" s="36"/>
       <c r="J422" s="36"/>
       <c r="K422" s="36"/>
@@ -34749,7 +34767,7 @@
       <c r="CC422" s="37"/>
       <c r="CD422" s="37"/>
     </row>
-    <row r="423" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="423" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I423" s="36"/>
       <c r="J423" s="36"/>
       <c r="K423" s="36"/>
@@ -34825,7 +34843,7 @@
       <c r="CC423" s="37"/>
       <c r="CD423" s="37"/>
     </row>
-    <row r="424" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="424" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I424" s="36"/>
       <c r="J424" s="36"/>
       <c r="K424" s="36"/>
@@ -34901,7 +34919,7 @@
       <c r="CC424" s="37"/>
       <c r="CD424" s="37"/>
     </row>
-    <row r="425" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="425" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I425" s="36"/>
       <c r="J425" s="36"/>
       <c r="K425" s="36"/>
@@ -34977,7 +34995,7 @@
       <c r="CC425" s="37"/>
       <c r="CD425" s="37"/>
     </row>
-    <row r="426" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="426" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I426" s="36"/>
       <c r="J426" s="36"/>
       <c r="K426" s="36"/>
@@ -35053,7 +35071,7 @@
       <c r="CC426" s="37"/>
       <c r="CD426" s="37"/>
     </row>
-    <row r="427" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="427" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I427" s="36"/>
       <c r="J427" s="36"/>
       <c r="K427" s="36"/>
@@ -35129,8 +35147,8 @@
       <c r="CC427" s="37"/>
       <c r="CD427" s="37"/>
     </row>
-    <row r="430" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="431" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="430" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="431" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I431" s="39" t="s">
         <v>13</v>
       </c>
@@ -35214,7 +35232,7 @@
       <c r="CC431" s="39"/>
       <c r="CD431" s="39"/>
     </row>
-    <row r="432" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="432" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I432" s="39"/>
       <c r="J432" s="39"/>
       <c r="K432" s="39"/>
@@ -35290,7 +35308,7 @@
       <c r="CC432" s="39"/>
       <c r="CD432" s="39"/>
     </row>
-    <row r="433" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="433" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I433" s="38" t="s">
         <v>98</v>
       </c>
@@ -35374,7 +35392,7 @@
       <c r="CC433" s="38"/>
       <c r="CD433" s="38"/>
     </row>
-    <row r="434" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="434" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I434" s="38"/>
       <c r="J434" s="38"/>
       <c r="K434" s="38"/>
@@ -35450,7 +35468,7 @@
       <c r="CC434" s="38"/>
       <c r="CD434" s="38"/>
     </row>
-    <row r="435" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="435" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I435" s="38"/>
       <c r="J435" s="38"/>
       <c r="K435" s="38"/>
@@ -35526,7 +35544,7 @@
       <c r="CC435" s="38"/>
       <c r="CD435" s="38"/>
     </row>
-    <row r="436" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="436" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I436" s="39" t="s">
         <v>20</v>
       </c>
@@ -35604,7 +35622,7 @@
       <c r="CC436" s="39"/>
       <c r="CD436" s="39"/>
     </row>
-    <row r="437" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="437" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I437" s="39"/>
       <c r="J437" s="39"/>
       <c r="K437" s="39"/>
@@ -35680,7 +35698,7 @@
       <c r="CC437" s="39"/>
       <c r="CD437" s="39"/>
     </row>
-    <row r="438" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="438" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I438" s="36"/>
       <c r="J438" s="36"/>
       <c r="K438" s="36"/>
@@ -35758,7 +35776,7 @@
       <c r="CC438" s="37"/>
       <c r="CD438" s="37"/>
     </row>
-    <row r="439" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="439" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I439" s="36"/>
       <c r="J439" s="36"/>
       <c r="K439" s="36"/>
@@ -35834,7 +35852,7 @@
       <c r="CC439" s="37"/>
       <c r="CD439" s="37"/>
     </row>
-    <row r="440" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="440" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I440" s="36"/>
       <c r="J440" s="36"/>
       <c r="K440" s="36"/>
@@ -35910,7 +35928,7 @@
       <c r="CC440" s="37"/>
       <c r="CD440" s="37"/>
     </row>
-    <row r="441" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="441" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I441" s="36"/>
       <c r="J441" s="36"/>
       <c r="K441" s="36"/>
@@ -35986,7 +36004,7 @@
       <c r="CC441" s="37"/>
       <c r="CD441" s="37"/>
     </row>
-    <row r="442" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="442" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I442" s="36"/>
       <c r="J442" s="36"/>
       <c r="K442" s="36"/>
@@ -36062,7 +36080,7 @@
       <c r="CC442" s="37"/>
       <c r="CD442" s="37"/>
     </row>
-    <row r="443" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="443" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I443" s="36"/>
       <c r="J443" s="36"/>
       <c r="K443" s="36"/>
@@ -36138,7 +36156,7 @@
       <c r="CC443" s="37"/>
       <c r="CD443" s="37"/>
     </row>
-    <row r="444" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="444" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I444" s="36"/>
       <c r="J444" s="36"/>
       <c r="K444" s="36"/>
@@ -36214,7 +36232,7 @@
       <c r="CC444" s="37"/>
       <c r="CD444" s="37"/>
     </row>
-    <row r="445" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="445" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I445" s="36"/>
       <c r="J445" s="36"/>
       <c r="K445" s="36"/>
@@ -36290,7 +36308,7 @@
       <c r="CC445" s="37"/>
       <c r="CD445" s="37"/>
     </row>
-    <row r="446" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="446" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I446" s="36"/>
       <c r="J446" s="36"/>
       <c r="K446" s="36"/>
@@ -36366,7 +36384,7 @@
       <c r="CC446" s="37"/>
       <c r="CD446" s="37"/>
     </row>
-    <row r="447" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="447" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I447" s="36"/>
       <c r="J447" s="36"/>
       <c r="K447" s="36"/>
@@ -36442,7 +36460,7 @@
       <c r="CC447" s="37"/>
       <c r="CD447" s="37"/>
     </row>
-    <row r="448" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="448" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I448" s="36"/>
       <c r="J448" s="36"/>
       <c r="K448" s="36"/>
@@ -36518,7 +36536,7 @@
       <c r="CC448" s="37"/>
       <c r="CD448" s="37"/>
     </row>
-    <row r="449" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="449" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I449" s="36"/>
       <c r="J449" s="36"/>
       <c r="K449" s="36"/>
@@ -36594,7 +36612,7 @@
       <c r="CC449" s="37"/>
       <c r="CD449" s="37"/>
     </row>
-    <row r="450" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="450" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I450" s="36"/>
       <c r="J450" s="36"/>
       <c r="K450" s="36"/>
@@ -36670,7 +36688,7 @@
       <c r="CC450" s="37"/>
       <c r="CD450" s="37"/>
     </row>
-    <row r="451" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="451" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I451" s="36"/>
       <c r="J451" s="36"/>
       <c r="K451" s="36"/>
@@ -36746,7 +36764,7 @@
       <c r="CC451" s="37"/>
       <c r="CD451" s="37"/>
     </row>
-    <row r="452" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="452" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I452" s="36"/>
       <c r="J452" s="36"/>
       <c r="K452" s="36"/>
@@ -36822,7 +36840,7 @@
       <c r="CC452" s="37"/>
       <c r="CD452" s="37"/>
     </row>
-    <row r="453" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="453" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I453" s="36"/>
       <c r="J453" s="36"/>
       <c r="K453" s="36"/>
@@ -36898,7 +36916,7 @@
       <c r="CC453" s="37"/>
       <c r="CD453" s="37"/>
     </row>
-    <row r="454" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="454" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I454" s="36"/>
       <c r="J454" s="36"/>
       <c r="K454" s="36"/>
@@ -36974,7 +36992,7 @@
       <c r="CC454" s="37"/>
       <c r="CD454" s="37"/>
     </row>
-    <row r="455" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="455" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I455" s="36"/>
       <c r="J455" s="36"/>
       <c r="K455" s="36"/>
@@ -37050,8 +37068,8 @@
       <c r="CC455" s="37"/>
       <c r="CD455" s="37"/>
     </row>
-    <row r="458" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="459" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="458" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="459" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I459" s="39" t="s">
         <v>13</v>
       </c>
@@ -37135,7 +37153,7 @@
       <c r="CC459" s="39"/>
       <c r="CD459" s="39"/>
     </row>
-    <row r="460" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="460" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I460" s="39"/>
       <c r="J460" s="39"/>
       <c r="K460" s="39"/>
@@ -37211,7 +37229,7 @@
       <c r="CC460" s="39"/>
       <c r="CD460" s="39"/>
     </row>
-    <row r="461" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="461" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I461" s="38" t="s">
         <v>99</v>
       </c>
@@ -37295,7 +37313,7 @@
       <c r="CC461" s="38"/>
       <c r="CD461" s="38"/>
     </row>
-    <row r="462" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="462" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I462" s="38"/>
       <c r="J462" s="38"/>
       <c r="K462" s="38"/>
@@ -37371,7 +37389,7 @@
       <c r="CC462" s="38"/>
       <c r="CD462" s="38"/>
     </row>
-    <row r="463" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="463" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I463" s="38"/>
       <c r="J463" s="38"/>
       <c r="K463" s="38"/>
@@ -37447,7 +37465,7 @@
       <c r="CC463" s="38"/>
       <c r="CD463" s="38"/>
     </row>
-    <row r="464" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="464" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I464" s="39" t="s">
         <v>20</v>
       </c>
@@ -37525,7 +37543,7 @@
       <c r="CC464" s="39"/>
       <c r="CD464" s="39"/>
     </row>
-    <row r="465" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="465" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I465" s="39"/>
       <c r="J465" s="39"/>
       <c r="K465" s="39"/>
@@ -37601,7 +37619,7 @@
       <c r="CC465" s="39"/>
       <c r="CD465" s="39"/>
     </row>
-    <row r="466" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="466" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I466" s="36"/>
       <c r="J466" s="36"/>
       <c r="K466" s="36"/>
@@ -37679,7 +37697,7 @@
       <c r="CC466" s="37"/>
       <c r="CD466" s="37"/>
     </row>
-    <row r="467" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="467" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I467" s="36"/>
       <c r="J467" s="36"/>
       <c r="K467" s="36"/>
@@ -37755,7 +37773,7 @@
       <c r="CC467" s="37"/>
       <c r="CD467" s="37"/>
     </row>
-    <row r="468" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="468" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I468" s="36"/>
       <c r="J468" s="36"/>
       <c r="K468" s="36"/>
@@ -37831,7 +37849,7 @@
       <c r="CC468" s="37"/>
       <c r="CD468" s="37"/>
     </row>
-    <row r="469" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="469" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I469" s="36"/>
       <c r="J469" s="36"/>
       <c r="K469" s="36"/>
@@ -37907,7 +37925,7 @@
       <c r="CC469" s="37"/>
       <c r="CD469" s="37"/>
     </row>
-    <row r="470" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="470" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I470" s="36"/>
       <c r="J470" s="36"/>
       <c r="K470" s="36"/>
@@ -37983,7 +38001,7 @@
       <c r="CC470" s="37"/>
       <c r="CD470" s="37"/>
     </row>
-    <row r="471" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="471" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I471" s="36"/>
       <c r="J471" s="36"/>
       <c r="K471" s="36"/>
@@ -38059,7 +38077,7 @@
       <c r="CC471" s="37"/>
       <c r="CD471" s="37"/>
     </row>
-    <row r="472" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="472" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I472" s="36"/>
       <c r="J472" s="36"/>
       <c r="K472" s="36"/>
@@ -38135,7 +38153,7 @@
       <c r="CC472" s="37"/>
       <c r="CD472" s="37"/>
     </row>
-    <row r="473" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="473" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I473" s="36"/>
       <c r="J473" s="36"/>
       <c r="K473" s="36"/>
@@ -38211,7 +38229,7 @@
       <c r="CC473" s="37"/>
       <c r="CD473" s="37"/>
     </row>
-    <row r="474" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="474" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I474" s="36"/>
       <c r="J474" s="36"/>
       <c r="K474" s="36"/>
@@ -38287,7 +38305,7 @@
       <c r="CC474" s="37"/>
       <c r="CD474" s="37"/>
     </row>
-    <row r="475" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="475" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I475" s="36"/>
       <c r="J475" s="36"/>
       <c r="K475" s="36"/>
@@ -38363,7 +38381,7 @@
       <c r="CC475" s="37"/>
       <c r="CD475" s="37"/>
     </row>
-    <row r="476" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="476" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I476" s="36"/>
       <c r="J476" s="36"/>
       <c r="K476" s="36"/>
@@ -38439,7 +38457,7 @@
       <c r="CC476" s="37"/>
       <c r="CD476" s="37"/>
     </row>
-    <row r="477" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="477" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I477" s="36"/>
       <c r="J477" s="36"/>
       <c r="K477" s="36"/>
@@ -38515,7 +38533,7 @@
       <c r="CC477" s="37"/>
       <c r="CD477" s="37"/>
     </row>
-    <row r="478" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="478" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I478" s="36"/>
       <c r="J478" s="36"/>
       <c r="K478" s="36"/>
@@ -38591,7 +38609,7 @@
       <c r="CC478" s="37"/>
       <c r="CD478" s="37"/>
     </row>
-    <row r="479" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="479" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I479" s="36"/>
       <c r="J479" s="36"/>
       <c r="K479" s="36"/>
@@ -38667,7 +38685,7 @@
       <c r="CC479" s="37"/>
       <c r="CD479" s="37"/>
     </row>
-    <row r="480" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="480" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I480" s="36"/>
       <c r="J480" s="36"/>
       <c r="K480" s="36"/>
@@ -38743,7 +38761,7 @@
       <c r="CC480" s="37"/>
       <c r="CD480" s="37"/>
     </row>
-    <row r="481" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="481" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I481" s="36"/>
       <c r="J481" s="36"/>
       <c r="K481" s="36"/>
@@ -38819,7 +38837,7 @@
       <c r="CC481" s="37"/>
       <c r="CD481" s="37"/>
     </row>
-    <row r="482" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="482" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I482" s="36"/>
       <c r="J482" s="36"/>
       <c r="K482" s="36"/>
@@ -38895,7 +38913,7 @@
       <c r="CC482" s="37"/>
       <c r="CD482" s="37"/>
     </row>
-    <row r="483" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="483" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I483" s="36"/>
       <c r="J483" s="36"/>
       <c r="K483" s="36"/>
@@ -38971,8 +38989,8 @@
       <c r="CC483" s="37"/>
       <c r="CD483" s="37"/>
     </row>
-    <row r="486" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="487" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="486" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="487" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I487" s="39" t="s">
         <v>13</v>
       </c>
@@ -39056,7 +39074,7 @@
       <c r="CC487" s="39"/>
       <c r="CD487" s="39"/>
     </row>
-    <row r="488" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="488" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I488" s="39"/>
       <c r="J488" s="39"/>
       <c r="K488" s="39"/>
@@ -39132,7 +39150,7 @@
       <c r="CC488" s="39"/>
       <c r="CD488" s="39"/>
     </row>
-    <row r="489" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="489" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I489" s="38" t="s">
         <v>102</v>
       </c>
@@ -39216,7 +39234,7 @@
       <c r="CC489" s="38"/>
       <c r="CD489" s="38"/>
     </row>
-    <row r="490" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="490" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I490" s="38"/>
       <c r="J490" s="38"/>
       <c r="K490" s="38"/>
@@ -39292,7 +39310,7 @@
       <c r="CC490" s="38"/>
       <c r="CD490" s="38"/>
     </row>
-    <row r="491" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="491" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I491" s="38"/>
       <c r="J491" s="38"/>
       <c r="K491" s="38"/>
@@ -39368,7 +39386,7 @@
       <c r="CC491" s="38"/>
       <c r="CD491" s="38"/>
     </row>
-    <row r="492" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="492" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I492" s="39" t="s">
         <v>20</v>
       </c>
@@ -39446,7 +39464,7 @@
       <c r="CC492" s="39"/>
       <c r="CD492" s="39"/>
     </row>
-    <row r="493" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="493" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I493" s="39"/>
       <c r="J493" s="39"/>
       <c r="K493" s="39"/>
@@ -39522,7 +39540,7 @@
       <c r="CC493" s="39"/>
       <c r="CD493" s="39"/>
     </row>
-    <row r="494" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="494" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I494" s="36"/>
       <c r="J494" s="36"/>
       <c r="K494" s="36"/>
@@ -39600,7 +39618,7 @@
       <c r="CC494" s="37"/>
       <c r="CD494" s="37"/>
     </row>
-    <row r="495" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="495" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I495" s="36"/>
       <c r="J495" s="36"/>
       <c r="K495" s="36"/>
@@ -39676,7 +39694,7 @@
       <c r="CC495" s="37"/>
       <c r="CD495" s="37"/>
     </row>
-    <row r="496" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="496" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I496" s="36"/>
       <c r="J496" s="36"/>
       <c r="K496" s="36"/>
@@ -39752,7 +39770,7 @@
       <c r="CC496" s="37"/>
       <c r="CD496" s="37"/>
     </row>
-    <row r="497" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="497" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I497" s="36"/>
       <c r="J497" s="36"/>
       <c r="K497" s="36"/>
@@ -39828,7 +39846,7 @@
       <c r="CC497" s="37"/>
       <c r="CD497" s="37"/>
     </row>
-    <row r="498" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="498" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I498" s="36"/>
       <c r="J498" s="36"/>
       <c r="K498" s="36"/>
@@ -39904,7 +39922,7 @@
       <c r="CC498" s="37"/>
       <c r="CD498" s="37"/>
     </row>
-    <row r="499" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="499" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I499" s="36"/>
       <c r="J499" s="36"/>
       <c r="K499" s="36"/>
@@ -39980,7 +39998,7 @@
       <c r="CC499" s="37"/>
       <c r="CD499" s="37"/>
     </row>
-    <row r="500" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="500" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I500" s="36"/>
       <c r="J500" s="36"/>
       <c r="K500" s="36"/>
@@ -40056,7 +40074,7 @@
       <c r="CC500" s="37"/>
       <c r="CD500" s="37"/>
     </row>
-    <row r="501" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="501" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I501" s="36"/>
       <c r="J501" s="36"/>
       <c r="K501" s="36"/>
@@ -40132,7 +40150,7 @@
       <c r="CC501" s="37"/>
       <c r="CD501" s="37"/>
     </row>
-    <row r="502" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="502" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I502" s="36"/>
       <c r="J502" s="36"/>
       <c r="K502" s="36"/>
@@ -40208,7 +40226,7 @@
       <c r="CC502" s="37"/>
       <c r="CD502" s="37"/>
     </row>
-    <row r="503" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="503" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I503" s="36"/>
       <c r="J503" s="36"/>
       <c r="K503" s="36"/>
@@ -40284,7 +40302,7 @@
       <c r="CC503" s="37"/>
       <c r="CD503" s="37"/>
     </row>
-    <row r="504" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="504" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I504" s="36"/>
       <c r="J504" s="36"/>
       <c r="K504" s="36"/>
@@ -40360,7 +40378,7 @@
       <c r="CC504" s="37"/>
       <c r="CD504" s="37"/>
     </row>
-    <row r="505" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="505" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I505" s="36"/>
       <c r="J505" s="36"/>
       <c r="K505" s="36"/>
@@ -40436,7 +40454,7 @@
       <c r="CC505" s="37"/>
       <c r="CD505" s="37"/>
     </row>
-    <row r="506" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="506" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I506" s="36"/>
       <c r="J506" s="36"/>
       <c r="K506" s="36"/>
@@ -40512,7 +40530,7 @@
       <c r="CC506" s="37"/>
       <c r="CD506" s="37"/>
     </row>
-    <row r="507" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="507" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I507" s="36"/>
       <c r="J507" s="36"/>
       <c r="K507" s="36"/>
@@ -40588,7 +40606,7 @@
       <c r="CC507" s="37"/>
       <c r="CD507" s="37"/>
     </row>
-    <row r="508" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="508" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I508" s="36"/>
       <c r="J508" s="36"/>
       <c r="K508" s="36"/>
@@ -40664,7 +40682,7 @@
       <c r="CC508" s="37"/>
       <c r="CD508" s="37"/>
     </row>
-    <row r="509" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="509" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I509" s="36"/>
       <c r="J509" s="36"/>
       <c r="K509" s="36"/>
@@ -40740,7 +40758,7 @@
       <c r="CC509" s="37"/>
       <c r="CD509" s="37"/>
     </row>
-    <row r="510" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="510" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I510" s="36"/>
       <c r="J510" s="36"/>
       <c r="K510" s="36"/>
@@ -40816,7 +40834,7 @@
       <c r="CC510" s="37"/>
       <c r="CD510" s="37"/>
     </row>
-    <row r="511" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="511" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I511" s="36"/>
       <c r="J511" s="36"/>
       <c r="K511" s="36"/>
@@ -40892,8 +40910,8 @@
       <c r="CC511" s="37"/>
       <c r="CD511" s="37"/>
     </row>
-    <row r="514" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="515" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="514" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="515" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I515" s="39" t="s">
         <v>13</v>
       </c>
@@ -40977,7 +40995,7 @@
       <c r="CC515" s="39"/>
       <c r="CD515" s="39"/>
     </row>
-    <row r="516" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="516" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I516" s="39"/>
       <c r="J516" s="39"/>
       <c r="K516" s="39"/>
@@ -41053,7 +41071,7 @@
       <c r="CC516" s="39"/>
       <c r="CD516" s="39"/>
     </row>
-    <row r="517" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="517" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I517" s="38" t="s">
         <v>103</v>
       </c>
@@ -41137,7 +41155,7 @@
       <c r="CC517" s="38"/>
       <c r="CD517" s="38"/>
     </row>
-    <row r="518" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="518" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I518" s="38"/>
       <c r="J518" s="38"/>
       <c r="K518" s="38"/>
@@ -41213,7 +41231,7 @@
       <c r="CC518" s="38"/>
       <c r="CD518" s="38"/>
     </row>
-    <row r="519" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="519" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I519" s="38"/>
       <c r="J519" s="38"/>
       <c r="K519" s="38"/>
@@ -41289,7 +41307,7 @@
       <c r="CC519" s="38"/>
       <c r="CD519" s="38"/>
     </row>
-    <row r="520" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="520" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I520" s="39" t="s">
         <v>20</v>
       </c>
@@ -41367,7 +41385,7 @@
       <c r="CC520" s="39"/>
       <c r="CD520" s="39"/>
     </row>
-    <row r="521" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="521" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I521" s="39"/>
       <c r="J521" s="39"/>
       <c r="K521" s="39"/>
@@ -41443,7 +41461,7 @@
       <c r="CC521" s="39"/>
       <c r="CD521" s="39"/>
     </row>
-    <row r="522" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="522" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I522" s="36"/>
       <c r="J522" s="36"/>
       <c r="K522" s="36"/>
@@ -41521,7 +41539,7 @@
       <c r="CC522" s="37"/>
       <c r="CD522" s="37"/>
     </row>
-    <row r="523" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="523" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I523" s="36"/>
       <c r="J523" s="36"/>
       <c r="K523" s="36"/>
@@ -41597,7 +41615,7 @@
       <c r="CC523" s="37"/>
       <c r="CD523" s="37"/>
     </row>
-    <row r="524" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="524" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I524" s="36"/>
       <c r="J524" s="36"/>
       <c r="K524" s="36"/>
@@ -41673,7 +41691,7 @@
       <c r="CC524" s="37"/>
       <c r="CD524" s="37"/>
     </row>
-    <row r="525" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="525" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I525" s="36"/>
       <c r="J525" s="36"/>
       <c r="K525" s="36"/>
@@ -41749,7 +41767,7 @@
       <c r="CC525" s="37"/>
       <c r="CD525" s="37"/>
     </row>
-    <row r="526" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="526" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I526" s="36"/>
       <c r="J526" s="36"/>
       <c r="K526" s="36"/>
@@ -41825,7 +41843,7 @@
       <c r="CC526" s="37"/>
       <c r="CD526" s="37"/>
     </row>
-    <row r="527" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="527" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I527" s="36"/>
       <c r="J527" s="36"/>
       <c r="K527" s="36"/>
@@ -41901,7 +41919,7 @@
       <c r="CC527" s="37"/>
       <c r="CD527" s="37"/>
     </row>
-    <row r="528" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="528" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I528" s="36"/>
       <c r="J528" s="36"/>
       <c r="K528" s="36"/>
@@ -41977,7 +41995,7 @@
       <c r="CC528" s="37"/>
       <c r="CD528" s="37"/>
     </row>
-    <row r="529" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="529" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I529" s="36"/>
       <c r="J529" s="36"/>
       <c r="K529" s="36"/>
@@ -42053,7 +42071,7 @@
       <c r="CC529" s="37"/>
       <c r="CD529" s="37"/>
     </row>
-    <row r="530" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="530" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I530" s="36"/>
       <c r="J530" s="36"/>
       <c r="K530" s="36"/>
@@ -42129,7 +42147,7 @@
       <c r="CC530" s="37"/>
       <c r="CD530" s="37"/>
     </row>
-    <row r="531" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="531" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I531" s="36"/>
       <c r="J531" s="36"/>
       <c r="K531" s="36"/>
@@ -42205,7 +42223,7 @@
       <c r="CC531" s="37"/>
       <c r="CD531" s="37"/>
     </row>
-    <row r="532" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="532" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I532" s="36"/>
       <c r="J532" s="36"/>
       <c r="K532" s="36"/>
@@ -42281,7 +42299,7 @@
       <c r="CC532" s="37"/>
       <c r="CD532" s="37"/>
     </row>
-    <row r="533" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="533" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I533" s="36"/>
       <c r="J533" s="36"/>
       <c r="K533" s="36"/>
@@ -42357,7 +42375,7 @@
       <c r="CC533" s="37"/>
       <c r="CD533" s="37"/>
     </row>
-    <row r="534" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="534" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I534" s="36"/>
       <c r="J534" s="36"/>
       <c r="K534" s="36"/>
@@ -42433,7 +42451,7 @@
       <c r="CC534" s="37"/>
       <c r="CD534" s="37"/>
     </row>
-    <row r="535" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="535" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I535" s="36"/>
       <c r="J535" s="36"/>
       <c r="K535" s="36"/>
@@ -42509,7 +42527,7 @@
       <c r="CC535" s="37"/>
       <c r="CD535" s="37"/>
     </row>
-    <row r="536" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="536" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I536" s="36"/>
       <c r="J536" s="36"/>
       <c r="K536" s="36"/>
@@ -42585,7 +42603,7 @@
       <c r="CC536" s="37"/>
       <c r="CD536" s="37"/>
     </row>
-    <row r="537" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="537" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I537" s="36"/>
       <c r="J537" s="36"/>
       <c r="K537" s="36"/>
@@ -42661,7 +42679,7 @@
       <c r="CC537" s="37"/>
       <c r="CD537" s="37"/>
     </row>
-    <row r="538" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="538" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I538" s="36"/>
       <c r="J538" s="36"/>
       <c r="K538" s="36"/>
@@ -42737,7 +42755,7 @@
       <c r="CC538" s="37"/>
       <c r="CD538" s="37"/>
     </row>
-    <row r="539" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="539" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I539" s="36"/>
       <c r="J539" s="36"/>
       <c r="K539" s="36"/>
@@ -42813,8 +42831,8 @@
       <c r="CC539" s="37"/>
       <c r="CD539" s="37"/>
     </row>
-    <row r="542" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="543" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="542" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="543" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I543" s="39" t="s">
         <v>13</v>
       </c>
@@ -42898,7 +42916,7 @@
       <c r="CC543" s="39"/>
       <c r="CD543" s="39"/>
     </row>
-    <row r="544" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="544" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I544" s="39"/>
       <c r="J544" s="39"/>
       <c r="K544" s="39"/>
@@ -42974,7 +42992,7 @@
       <c r="CC544" s="39"/>
       <c r="CD544" s="39"/>
     </row>
-    <row r="545" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="545" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I545" s="38" t="s">
         <v>108</v>
       </c>
@@ -43058,7 +43076,7 @@
       <c r="CC545" s="38"/>
       <c r="CD545" s="38"/>
     </row>
-    <row r="546" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="546" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I546" s="38"/>
       <c r="J546" s="38"/>
       <c r="K546" s="38"/>
@@ -43134,7 +43152,7 @@
       <c r="CC546" s="38"/>
       <c r="CD546" s="38"/>
     </row>
-    <row r="547" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="547" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I547" s="38"/>
       <c r="J547" s="38"/>
       <c r="K547" s="38"/>
@@ -43210,7 +43228,7 @@
       <c r="CC547" s="38"/>
       <c r="CD547" s="38"/>
     </row>
-    <row r="548" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="548" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I548" s="39" t="s">
         <v>20</v>
       </c>
@@ -43288,7 +43306,7 @@
       <c r="CC548" s="39"/>
       <c r="CD548" s="39"/>
     </row>
-    <row r="549" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="549" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I549" s="39"/>
       <c r="J549" s="39"/>
       <c r="K549" s="39"/>
@@ -43364,7 +43382,7 @@
       <c r="CC549" s="39"/>
       <c r="CD549" s="39"/>
     </row>
-    <row r="550" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="550" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I550" s="36"/>
       <c r="J550" s="36"/>
       <c r="K550" s="36"/>
@@ -43442,7 +43460,7 @@
       <c r="CC550" s="37"/>
       <c r="CD550" s="37"/>
     </row>
-    <row r="551" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="551" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I551" s="36"/>
       <c r="J551" s="36"/>
       <c r="K551" s="36"/>
@@ -43518,7 +43536,7 @@
       <c r="CC551" s="37"/>
       <c r="CD551" s="37"/>
     </row>
-    <row r="552" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="552" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I552" s="36"/>
       <c r="J552" s="36"/>
       <c r="K552" s="36"/>
@@ -43594,7 +43612,7 @@
       <c r="CC552" s="37"/>
       <c r="CD552" s="37"/>
     </row>
-    <row r="553" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="553" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I553" s="36"/>
       <c r="J553" s="36"/>
       <c r="K553" s="36"/>
@@ -43670,7 +43688,7 @@
       <c r="CC553" s="37"/>
       <c r="CD553" s="37"/>
     </row>
-    <row r="554" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="554" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I554" s="36"/>
       <c r="J554" s="36"/>
       <c r="K554" s="36"/>
@@ -43746,7 +43764,7 @@
       <c r="CC554" s="37"/>
       <c r="CD554" s="37"/>
     </row>
-    <row r="555" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="555" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I555" s="36"/>
       <c r="J555" s="36"/>
       <c r="K555" s="36"/>
@@ -43822,7 +43840,7 @@
       <c r="CC555" s="37"/>
       <c r="CD555" s="37"/>
     </row>
-    <row r="556" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="556" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I556" s="36"/>
       <c r="J556" s="36"/>
       <c r="K556" s="36"/>
@@ -43898,7 +43916,7 @@
       <c r="CC556" s="37"/>
       <c r="CD556" s="37"/>
     </row>
-    <row r="557" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="557" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I557" s="36"/>
       <c r="J557" s="36"/>
       <c r="K557" s="36"/>
@@ -43974,7 +43992,7 @@
       <c r="CC557" s="37"/>
       <c r="CD557" s="37"/>
     </row>
-    <row r="558" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="558" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I558" s="36"/>
       <c r="J558" s="36"/>
       <c r="K558" s="36"/>
@@ -44050,7 +44068,7 @@
       <c r="CC558" s="37"/>
       <c r="CD558" s="37"/>
     </row>
-    <row r="559" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="559" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I559" s="36"/>
       <c r="J559" s="36"/>
       <c r="K559" s="36"/>
@@ -44126,7 +44144,7 @@
       <c r="CC559" s="37"/>
       <c r="CD559" s="37"/>
     </row>
-    <row r="560" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="560" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I560" s="36"/>
       <c r="J560" s="36"/>
       <c r="K560" s="36"/>
@@ -44202,7 +44220,7 @@
       <c r="CC560" s="37"/>
       <c r="CD560" s="37"/>
     </row>
-    <row r="561" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="561" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I561" s="36"/>
       <c r="J561" s="36"/>
       <c r="K561" s="36"/>
@@ -44278,7 +44296,7 @@
       <c r="CC561" s="37"/>
       <c r="CD561" s="37"/>
     </row>
-    <row r="562" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="562" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I562" s="36"/>
       <c r="J562" s="36"/>
       <c r="K562" s="36"/>
@@ -44354,7 +44372,7 @@
       <c r="CC562" s="37"/>
       <c r="CD562" s="37"/>
     </row>
-    <row r="563" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="563" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I563" s="36"/>
       <c r="J563" s="36"/>
       <c r="K563" s="36"/>
@@ -44430,7 +44448,7 @@
       <c r="CC563" s="37"/>
       <c r="CD563" s="37"/>
     </row>
-    <row r="564" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="564" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I564" s="36"/>
       <c r="J564" s="36"/>
       <c r="K564" s="36"/>
@@ -44506,7 +44524,7 @@
       <c r="CC564" s="37"/>
       <c r="CD564" s="37"/>
     </row>
-    <row r="565" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="565" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I565" s="36"/>
       <c r="J565" s="36"/>
       <c r="K565" s="36"/>
@@ -44582,7 +44600,7 @@
       <c r="CC565" s="37"/>
       <c r="CD565" s="37"/>
     </row>
-    <row r="566" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="566" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I566" s="36"/>
       <c r="J566" s="36"/>
       <c r="K566" s="36"/>
@@ -44658,7 +44676,7 @@
       <c r="CC566" s="37"/>
       <c r="CD566" s="37"/>
     </row>
-    <row r="567" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="567" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I567" s="36"/>
       <c r="J567" s="36"/>
       <c r="K567" s="36"/>
@@ -44734,8 +44752,8 @@
       <c r="CC567" s="37"/>
       <c r="CD567" s="37"/>
     </row>
-    <row r="570" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="571" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="570" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="571" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I571" s="39" t="s">
         <v>13</v>
       </c>
@@ -44819,7 +44837,7 @@
       <c r="CC571" s="39"/>
       <c r="CD571" s="39"/>
     </row>
-    <row r="572" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="572" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I572" s="39"/>
       <c r="J572" s="39"/>
       <c r="K572" s="39"/>
@@ -44895,7 +44913,7 @@
       <c r="CC572" s="39"/>
       <c r="CD572" s="39"/>
     </row>
-    <row r="573" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="573" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I573" s="38" t="s">
         <v>17</v>
       </c>
@@ -44979,7 +44997,7 @@
       <c r="CC573" s="38"/>
       <c r="CD573" s="38"/>
     </row>
-    <row r="574" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="574" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I574" s="38"/>
       <c r="J574" s="38"/>
       <c r="K574" s="38"/>
@@ -45055,7 +45073,7 @@
       <c r="CC574" s="38"/>
       <c r="CD574" s="38"/>
     </row>
-    <row r="575" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="575" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I575" s="38"/>
       <c r="J575" s="38"/>
       <c r="K575" s="38"/>
@@ -45131,7 +45149,7 @@
       <c r="CC575" s="38"/>
       <c r="CD575" s="38"/>
     </row>
-    <row r="576" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="576" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I576" s="39" t="s">
         <v>20</v>
       </c>
@@ -45209,7 +45227,7 @@
       <c r="CC576" s="39"/>
       <c r="CD576" s="39"/>
     </row>
-    <row r="577" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="577" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I577" s="39"/>
       <c r="J577" s="39"/>
       <c r="K577" s="39"/>
@@ -45285,7 +45303,7 @@
       <c r="CC577" s="39"/>
       <c r="CD577" s="39"/>
     </row>
-    <row r="578" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="578" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I578" s="36"/>
       <c r="J578" s="36"/>
       <c r="K578" s="36"/>
@@ -45363,7 +45381,7 @@
       <c r="CC578" s="37"/>
       <c r="CD578" s="37"/>
     </row>
-    <row r="579" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="579" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I579" s="36"/>
       <c r="J579" s="36"/>
       <c r="K579" s="36"/>
@@ -45439,7 +45457,7 @@
       <c r="CC579" s="37"/>
       <c r="CD579" s="37"/>
     </row>
-    <row r="580" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="580" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I580" s="36"/>
       <c r="J580" s="36"/>
       <c r="K580" s="36"/>
@@ -45515,7 +45533,7 @@
       <c r="CC580" s="37"/>
       <c r="CD580" s="37"/>
     </row>
-    <row r="581" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="581" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I581" s="36"/>
       <c r="J581" s="36"/>
       <c r="K581" s="36"/>
@@ -45591,7 +45609,7 @@
       <c r="CC581" s="37"/>
       <c r="CD581" s="37"/>
     </row>
-    <row r="582" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="582" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I582" s="36"/>
       <c r="J582" s="36"/>
       <c r="K582" s="36"/>
@@ -45667,7 +45685,7 @@
       <c r="CC582" s="37"/>
       <c r="CD582" s="37"/>
     </row>
-    <row r="583" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="583" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I583" s="36"/>
       <c r="J583" s="36"/>
       <c r="K583" s="36"/>
@@ -45743,7 +45761,7 @@
       <c r="CC583" s="37"/>
       <c r="CD583" s="37"/>
     </row>
-    <row r="584" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="584" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I584" s="36"/>
       <c r="J584" s="36"/>
       <c r="K584" s="36"/>
@@ -45819,7 +45837,7 @@
       <c r="CC584" s="37"/>
       <c r="CD584" s="37"/>
     </row>
-    <row r="585" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="585" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I585" s="36"/>
       <c r="J585" s="36"/>
       <c r="K585" s="36"/>
@@ -45895,7 +45913,7 @@
       <c r="CC585" s="37"/>
       <c r="CD585" s="37"/>
     </row>
-    <row r="586" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="586" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I586" s="36"/>
       <c r="J586" s="36"/>
       <c r="K586" s="36"/>
@@ -45971,7 +45989,7 @@
       <c r="CC586" s="37"/>
       <c r="CD586" s="37"/>
     </row>
-    <row r="587" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="587" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I587" s="36"/>
       <c r="J587" s="36"/>
       <c r="K587" s="36"/>
@@ -46047,7 +46065,7 @@
       <c r="CC587" s="37"/>
       <c r="CD587" s="37"/>
     </row>
-    <row r="588" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="588" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I588" s="36"/>
       <c r="J588" s="36"/>
       <c r="K588" s="36"/>
@@ -46123,7 +46141,7 @@
       <c r="CC588" s="37"/>
       <c r="CD588" s="37"/>
     </row>
-    <row r="589" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="589" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I589" s="36"/>
       <c r="J589" s="36"/>
       <c r="K589" s="36"/>
@@ -46199,7 +46217,7 @@
       <c r="CC589" s="37"/>
       <c r="CD589" s="37"/>
     </row>
-    <row r="590" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="590" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I590" s="36"/>
       <c r="J590" s="36"/>
       <c r="K590" s="36"/>
@@ -46275,7 +46293,7 @@
       <c r="CC590" s="37"/>
       <c r="CD590" s="37"/>
     </row>
-    <row r="591" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="591" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I591" s="36"/>
       <c r="J591" s="36"/>
       <c r="K591" s="36"/>
@@ -46351,7 +46369,7 @@
       <c r="CC591" s="37"/>
       <c r="CD591" s="37"/>
     </row>
-    <row r="592" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="592" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I592" s="36"/>
       <c r="J592" s="36"/>
       <c r="K592" s="36"/>
@@ -46427,7 +46445,7 @@
       <c r="CC592" s="37"/>
       <c r="CD592" s="37"/>
     </row>
-    <row r="593" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="593" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I593" s="36"/>
       <c r="J593" s="36"/>
       <c r="K593" s="36"/>
@@ -46503,7 +46521,7 @@
       <c r="CC593" s="37"/>
       <c r="CD593" s="37"/>
     </row>
-    <row r="594" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="594" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I594" s="36"/>
       <c r="J594" s="36"/>
       <c r="K594" s="36"/>
@@ -46579,7 +46597,7 @@
       <c r="CC594" s="37"/>
       <c r="CD594" s="37"/>
     </row>
-    <row r="595" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="595" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I595" s="36"/>
       <c r="J595" s="36"/>
       <c r="K595" s="36"/>
@@ -46655,8 +46673,8 @@
       <c r="CC595" s="37"/>
       <c r="CD595" s="37"/>
     </row>
-    <row r="598" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="599" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="598" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="599" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I599" s="39" t="s">
         <v>13</v>
       </c>
@@ -46740,7 +46758,7 @@
       <c r="CC599" s="39"/>
       <c r="CD599" s="39"/>
     </row>
-    <row r="600" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="600" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I600" s="39"/>
       <c r="J600" s="39"/>
       <c r="K600" s="39"/>
@@ -46816,7 +46834,7 @@
       <c r="CC600" s="39"/>
       <c r="CD600" s="39"/>
     </row>
-    <row r="601" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="601" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I601" s="38" t="s">
         <v>23</v>
       </c>
@@ -46900,7 +46918,7 @@
       <c r="CC601" s="38"/>
       <c r="CD601" s="38"/>
     </row>
-    <row r="602" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="602" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I602" s="38"/>
       <c r="J602" s="38"/>
       <c r="K602" s="38"/>
@@ -46976,7 +46994,7 @@
       <c r="CC602" s="38"/>
       <c r="CD602" s="38"/>
     </row>
-    <row r="603" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="603" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I603" s="38"/>
       <c r="J603" s="38"/>
       <c r="K603" s="38"/>
@@ -47052,7 +47070,7 @@
       <c r="CC603" s="38"/>
       <c r="CD603" s="38"/>
     </row>
-    <row r="604" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="604" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I604" s="39" t="s">
         <v>20</v>
       </c>
@@ -47130,7 +47148,7 @@
       <c r="CC604" s="39"/>
       <c r="CD604" s="39"/>
     </row>
-    <row r="605" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="605" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I605" s="39"/>
       <c r="J605" s="39"/>
       <c r="K605" s="39"/>
@@ -47206,7 +47224,7 @@
       <c r="CC605" s="39"/>
       <c r="CD605" s="39"/>
     </row>
-    <row r="606" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="606" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I606" s="36"/>
       <c r="J606" s="36"/>
       <c r="K606" s="36"/>
@@ -47284,7 +47302,7 @@
       <c r="CC606" s="37"/>
       <c r="CD606" s="37"/>
     </row>
-    <row r="607" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="607" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I607" s="36"/>
       <c r="J607" s="36"/>
       <c r="K607" s="36"/>
@@ -47360,7 +47378,7 @@
       <c r="CC607" s="37"/>
       <c r="CD607" s="37"/>
     </row>
-    <row r="608" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="608" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I608" s="36"/>
       <c r="J608" s="36"/>
       <c r="K608" s="36"/>
@@ -47436,7 +47454,7 @@
       <c r="CC608" s="37"/>
       <c r="CD608" s="37"/>
     </row>
-    <row r="609" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="609" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I609" s="36"/>
       <c r="J609" s="36"/>
       <c r="K609" s="36"/>
@@ -47512,7 +47530,7 @@
       <c r="CC609" s="37"/>
       <c r="CD609" s="37"/>
     </row>
-    <row r="610" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="610" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I610" s="36"/>
       <c r="J610" s="36"/>
       <c r="K610" s="36"/>
@@ -47588,7 +47606,7 @@
       <c r="CC610" s="37"/>
       <c r="CD610" s="37"/>
     </row>
-    <row r="611" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="611" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I611" s="36"/>
       <c r="J611" s="36"/>
       <c r="K611" s="36"/>
@@ -47664,7 +47682,7 @@
       <c r="CC611" s="37"/>
       <c r="CD611" s="37"/>
     </row>
-    <row r="612" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="612" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I612" s="36"/>
       <c r="J612" s="36"/>
       <c r="K612" s="36"/>
@@ -47740,7 +47758,7 @@
       <c r="CC612" s="37"/>
       <c r="CD612" s="37"/>
     </row>
-    <row r="613" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="613" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I613" s="36"/>
       <c r="J613" s="36"/>
       <c r="K613" s="36"/>
@@ -47816,7 +47834,7 @@
       <c r="CC613" s="37"/>
       <c r="CD613" s="37"/>
     </row>
-    <row r="614" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="614" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I614" s="36"/>
       <c r="J614" s="36"/>
       <c r="K614" s="36"/>
@@ -47892,7 +47910,7 @@
       <c r="CC614" s="37"/>
       <c r="CD614" s="37"/>
     </row>
-    <row r="615" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="615" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I615" s="36"/>
       <c r="J615" s="36"/>
       <c r="K615" s="36"/>
@@ -47968,7 +47986,7 @@
       <c r="CC615" s="37"/>
       <c r="CD615" s="37"/>
     </row>
-    <row r="616" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="616" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I616" s="36"/>
       <c r="J616" s="36"/>
       <c r="K616" s="36"/>
@@ -48044,7 +48062,7 @@
       <c r="CC616" s="37"/>
       <c r="CD616" s="37"/>
     </row>
-    <row r="617" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="617" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I617" s="36"/>
       <c r="J617" s="36"/>
       <c r="K617" s="36"/>
@@ -48120,7 +48138,7 @@
       <c r="CC617" s="37"/>
       <c r="CD617" s="37"/>
     </row>
-    <row r="618" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="618" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I618" s="36"/>
       <c r="J618" s="36"/>
       <c r="K618" s="36"/>
@@ -48196,7 +48214,7 @@
       <c r="CC618" s="37"/>
       <c r="CD618" s="37"/>
     </row>
-    <row r="619" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="619" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I619" s="36"/>
       <c r="J619" s="36"/>
       <c r="K619" s="36"/>
@@ -48272,7 +48290,7 @@
       <c r="CC619" s="37"/>
       <c r="CD619" s="37"/>
     </row>
-    <row r="620" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="620" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I620" s="36"/>
       <c r="J620" s="36"/>
       <c r="K620" s="36"/>
@@ -48348,7 +48366,7 @@
       <c r="CC620" s="37"/>
       <c r="CD620" s="37"/>
     </row>
-    <row r="621" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="621" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I621" s="36"/>
       <c r="J621" s="36"/>
       <c r="K621" s="36"/>
@@ -48424,7 +48442,7 @@
       <c r="CC621" s="37"/>
       <c r="CD621" s="37"/>
     </row>
-    <row r="622" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="622" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I622" s="36"/>
       <c r="J622" s="36"/>
       <c r="K622" s="36"/>
@@ -48500,7 +48518,7 @@
       <c r="CC622" s="37"/>
       <c r="CD622" s="37"/>
     </row>
-    <row r="623" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="623" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I623" s="36"/>
       <c r="J623" s="36"/>
       <c r="K623" s="36"/>
@@ -48576,8 +48594,8 @@
       <c r="CC623" s="37"/>
       <c r="CD623" s="37"/>
     </row>
-    <row r="626" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="627" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="626" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="627" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I627" s="39" t="s">
         <v>13</v>
       </c>
@@ -48661,7 +48679,7 @@
       <c r="CC627" s="39"/>
       <c r="CD627" s="39"/>
     </row>
-    <row r="628" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="628" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I628" s="39"/>
       <c r="J628" s="39"/>
       <c r="K628" s="39"/>
@@ -48737,7 +48755,7 @@
       <c r="CC628" s="39"/>
       <c r="CD628" s="39"/>
     </row>
-    <row r="629" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="629" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I629" s="38" t="s">
         <v>27</v>
       </c>
@@ -48821,7 +48839,7 @@
       <c r="CC629" s="38"/>
       <c r="CD629" s="38"/>
     </row>
-    <row r="630" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="630" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I630" s="38"/>
       <c r="J630" s="38"/>
       <c r="K630" s="38"/>
@@ -48897,7 +48915,7 @@
       <c r="CC630" s="38"/>
       <c r="CD630" s="38"/>
     </row>
-    <row r="631" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="631" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I631" s="38"/>
       <c r="J631" s="38"/>
       <c r="K631" s="38"/>
@@ -48973,7 +48991,7 @@
       <c r="CC631" s="38"/>
       <c r="CD631" s="38"/>
     </row>
-    <row r="632" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="632" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I632" s="39" t="s">
         <v>20</v>
       </c>
@@ -49051,7 +49069,7 @@
       <c r="CC632" s="39"/>
       <c r="CD632" s="39"/>
     </row>
-    <row r="633" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="633" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I633" s="39"/>
       <c r="J633" s="39"/>
       <c r="K633" s="39"/>
@@ -49127,7 +49145,7 @@
       <c r="CC633" s="39"/>
       <c r="CD633" s="39"/>
     </row>
-    <row r="634" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="634" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I634" s="36"/>
       <c r="J634" s="36"/>
       <c r="K634" s="36"/>
@@ -49205,7 +49223,7 @@
       <c r="CC634" s="37"/>
       <c r="CD634" s="37"/>
     </row>
-    <row r="635" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="635" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I635" s="36"/>
       <c r="J635" s="36"/>
       <c r="K635" s="36"/>
@@ -49281,7 +49299,7 @@
       <c r="CC635" s="37"/>
       <c r="CD635" s="37"/>
     </row>
-    <row r="636" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="636" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I636" s="36"/>
       <c r="J636" s="36"/>
       <c r="K636" s="36"/>
@@ -49357,7 +49375,7 @@
       <c r="CC636" s="37"/>
       <c r="CD636" s="37"/>
     </row>
-    <row r="637" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="637" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I637" s="36"/>
       <c r="J637" s="36"/>
       <c r="K637" s="36"/>
@@ -49433,7 +49451,7 @@
       <c r="CC637" s="37"/>
       <c r="CD637" s="37"/>
     </row>
-    <row r="638" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="638" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I638" s="36"/>
       <c r="J638" s="36"/>
       <c r="K638" s="36"/>
@@ -49509,7 +49527,7 @@
       <c r="CC638" s="37"/>
       <c r="CD638" s="37"/>
     </row>
-    <row r="639" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="639" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I639" s="36"/>
       <c r="J639" s="36"/>
       <c r="K639" s="36"/>
@@ -49585,7 +49603,7 @@
       <c r="CC639" s="37"/>
       <c r="CD639" s="37"/>
     </row>
-    <row r="640" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="640" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I640" s="36"/>
       <c r="J640" s="36"/>
       <c r="K640" s="36"/>
@@ -49661,7 +49679,7 @@
       <c r="CC640" s="37"/>
       <c r="CD640" s="37"/>
     </row>
-    <row r="641" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="641" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I641" s="36"/>
       <c r="J641" s="36"/>
       <c r="K641" s="36"/>
@@ -49737,7 +49755,7 @@
       <c r="CC641" s="37"/>
       <c r="CD641" s="37"/>
     </row>
-    <row r="642" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="642" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I642" s="36"/>
       <c r="J642" s="36"/>
       <c r="K642" s="36"/>
@@ -49813,7 +49831,7 @@
       <c r="CC642" s="37"/>
       <c r="CD642" s="37"/>
     </row>
-    <row r="643" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="643" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I643" s="36"/>
       <c r="J643" s="36"/>
       <c r="K643" s="36"/>
@@ -49889,7 +49907,7 @@
       <c r="CC643" s="37"/>
       <c r="CD643" s="37"/>
     </row>
-    <row r="644" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="644" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I644" s="36"/>
       <c r="J644" s="36"/>
       <c r="K644" s="36"/>
@@ -49965,7 +49983,7 @@
       <c r="CC644" s="37"/>
       <c r="CD644" s="37"/>
     </row>
-    <row r="645" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="645" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I645" s="36"/>
       <c r="J645" s="36"/>
       <c r="K645" s="36"/>
@@ -50041,7 +50059,7 @@
       <c r="CC645" s="37"/>
       <c r="CD645" s="37"/>
     </row>
-    <row r="646" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="646" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I646" s="36"/>
       <c r="J646" s="36"/>
       <c r="K646" s="36"/>
@@ -50117,7 +50135,7 @@
       <c r="CC646" s="37"/>
       <c r="CD646" s="37"/>
     </row>
-    <row r="647" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="647" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I647" s="36"/>
       <c r="J647" s="36"/>
       <c r="K647" s="36"/>
@@ -50193,7 +50211,7 @@
       <c r="CC647" s="37"/>
       <c r="CD647" s="37"/>
     </row>
-    <row r="648" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="648" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I648" s="36"/>
       <c r="J648" s="36"/>
       <c r="K648" s="36"/>
@@ -50269,7 +50287,7 @@
       <c r="CC648" s="37"/>
       <c r="CD648" s="37"/>
     </row>
-    <row r="649" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="649" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I649" s="36"/>
       <c r="J649" s="36"/>
       <c r="K649" s="36"/>
@@ -50345,7 +50363,7 @@
       <c r="CC649" s="37"/>
       <c r="CD649" s="37"/>
     </row>
-    <row r="650" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="650" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I650" s="36"/>
       <c r="J650" s="36"/>
       <c r="K650" s="36"/>
@@ -50421,7 +50439,7 @@
       <c r="CC650" s="37"/>
       <c r="CD650" s="37"/>
     </row>
-    <row r="651" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="651" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I651" s="36"/>
       <c r="J651" s="36"/>
       <c r="K651" s="36"/>
@@ -50497,8 +50515,8 @@
       <c r="CC651" s="37"/>
       <c r="CD651" s="37"/>
     </row>
-    <row r="654" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="655" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="654" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="655" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I655" s="39" t="s">
         <v>13</v>
       </c>
@@ -50582,7 +50600,7 @@
       <c r="CC655" s="39"/>
       <c r="CD655" s="39"/>
     </row>
-    <row r="656" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="656" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I656" s="39"/>
       <c r="J656" s="39"/>
       <c r="K656" s="39"/>
@@ -50658,7 +50676,7 @@
       <c r="CC656" s="39"/>
       <c r="CD656" s="39"/>
     </row>
-    <row r="657" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="657" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I657" s="38" t="s">
         <v>28</v>
       </c>
@@ -50742,7 +50760,7 @@
       <c r="CC657" s="38"/>
       <c r="CD657" s="38"/>
     </row>
-    <row r="658" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="658" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I658" s="38"/>
       <c r="J658" s="38"/>
       <c r="K658" s="38"/>
@@ -50818,7 +50836,7 @@
       <c r="CC658" s="38"/>
       <c r="CD658" s="38"/>
     </row>
-    <row r="659" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="659" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I659" s="38"/>
       <c r="J659" s="38"/>
       <c r="K659" s="38"/>
@@ -50894,7 +50912,7 @@
       <c r="CC659" s="38"/>
       <c r="CD659" s="38"/>
     </row>
-    <row r="660" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="660" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I660" s="39" t="s">
         <v>20</v>
       </c>
@@ -50972,7 +50990,7 @@
       <c r="CC660" s="39"/>
       <c r="CD660" s="39"/>
     </row>
-    <row r="661" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="661" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I661" s="39"/>
       <c r="J661" s="39"/>
       <c r="K661" s="39"/>
@@ -51048,7 +51066,7 @@
       <c r="CC661" s="39"/>
       <c r="CD661" s="39"/>
     </row>
-    <row r="662" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="662" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I662" s="36"/>
       <c r="J662" s="36"/>
       <c r="K662" s="36"/>
@@ -51126,7 +51144,7 @@
       <c r="CC662" s="37"/>
       <c r="CD662" s="37"/>
     </row>
-    <row r="663" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="663" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I663" s="36"/>
       <c r="J663" s="36"/>
       <c r="K663" s="36"/>
@@ -51202,7 +51220,7 @@
       <c r="CC663" s="37"/>
       <c r="CD663" s="37"/>
     </row>
-    <row r="664" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="664" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I664" s="36"/>
       <c r="J664" s="36"/>
       <c r="K664" s="36"/>
@@ -51278,7 +51296,7 @@
       <c r="CC664" s="37"/>
       <c r="CD664" s="37"/>
     </row>
-    <row r="665" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="665" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I665" s="36"/>
       <c r="J665" s="36"/>
       <c r="K665" s="36"/>
@@ -51354,7 +51372,7 @@
       <c r="CC665" s="37"/>
       <c r="CD665" s="37"/>
     </row>
-    <row r="666" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="666" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I666" s="36"/>
       <c r="J666" s="36"/>
       <c r="K666" s="36"/>
@@ -51430,7 +51448,7 @@
       <c r="CC666" s="37"/>
       <c r="CD666" s="37"/>
     </row>
-    <row r="667" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="667" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I667" s="36"/>
       <c r="J667" s="36"/>
       <c r="K667" s="36"/>
@@ -51506,7 +51524,7 @@
       <c r="CC667" s="37"/>
       <c r="CD667" s="37"/>
     </row>
-    <row r="668" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="668" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I668" s="36"/>
       <c r="J668" s="36"/>
       <c r="K668" s="36"/>
@@ -51582,7 +51600,7 @@
       <c r="CC668" s="37"/>
       <c r="CD668" s="37"/>
     </row>
-    <row r="669" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="669" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I669" s="36"/>
       <c r="J669" s="36"/>
       <c r="K669" s="36"/>
@@ -51658,7 +51676,7 @@
       <c r="CC669" s="37"/>
       <c r="CD669" s="37"/>
     </row>
-    <row r="670" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="670" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I670" s="36"/>
       <c r="J670" s="36"/>
       <c r="K670" s="36"/>
@@ -51734,7 +51752,7 @@
       <c r="CC670" s="37"/>
       <c r="CD670" s="37"/>
     </row>
-    <row r="671" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="671" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I671" s="36"/>
       <c r="J671" s="36"/>
       <c r="K671" s="36"/>
@@ -51810,7 +51828,7 @@
       <c r="CC671" s="37"/>
       <c r="CD671" s="37"/>
     </row>
-    <row r="672" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="672" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I672" s="36"/>
       <c r="J672" s="36"/>
       <c r="K672" s="36"/>
@@ -51886,7 +51904,7 @@
       <c r="CC672" s="37"/>
       <c r="CD672" s="37"/>
     </row>
-    <row r="673" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="673" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I673" s="36"/>
       <c r="J673" s="36"/>
       <c r="K673" s="36"/>
@@ -51962,7 +51980,7 @@
       <c r="CC673" s="37"/>
       <c r="CD673" s="37"/>
     </row>
-    <row r="674" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="674" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I674" s="36"/>
       <c r="J674" s="36"/>
       <c r="K674" s="36"/>
@@ -52038,7 +52056,7 @@
       <c r="CC674" s="37"/>
       <c r="CD674" s="37"/>
     </row>
-    <row r="675" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="675" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I675" s="36"/>
       <c r="J675" s="36"/>
       <c r="K675" s="36"/>
@@ -52114,7 +52132,7 @@
       <c r="CC675" s="37"/>
       <c r="CD675" s="37"/>
     </row>
-    <row r="676" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="676" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I676" s="36"/>
       <c r="J676" s="36"/>
       <c r="K676" s="36"/>
@@ -52190,7 +52208,7 @@
       <c r="CC676" s="37"/>
       <c r="CD676" s="37"/>
     </row>
-    <row r="677" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="677" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I677" s="36"/>
       <c r="J677" s="36"/>
       <c r="K677" s="36"/>
@@ -52266,7 +52284,7 @@
       <c r="CC677" s="37"/>
       <c r="CD677" s="37"/>
     </row>
-    <row r="678" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="678" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I678" s="36"/>
       <c r="J678" s="36"/>
       <c r="K678" s="36"/>
@@ -52342,7 +52360,7 @@
       <c r="CC678" s="37"/>
       <c r="CD678" s="37"/>
     </row>
-    <row r="679" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="679" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I679" s="36"/>
       <c r="J679" s="36"/>
       <c r="K679" s="36"/>
@@ -52418,8 +52436,8 @@
       <c r="CC679" s="37"/>
       <c r="CD679" s="37"/>
     </row>
-    <row r="682" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="683" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="682" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="683" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I683" s="39" t="s">
         <v>13</v>
       </c>
@@ -52503,7 +52521,7 @@
       <c r="CC683" s="39"/>
       <c r="CD683" s="39"/>
     </row>
-    <row r="684" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="684" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I684" s="39"/>
       <c r="J684" s="39"/>
       <c r="K684" s="39"/>
@@ -52579,7 +52597,7 @@
       <c r="CC684" s="39"/>
       <c r="CD684" s="39"/>
     </row>
-    <row r="685" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="685" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I685" s="38" t="s">
         <v>32</v>
       </c>
@@ -52663,7 +52681,7 @@
       <c r="CC685" s="38"/>
       <c r="CD685" s="38"/>
     </row>
-    <row r="686" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="686" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I686" s="38"/>
       <c r="J686" s="38"/>
       <c r="K686" s="38"/>
@@ -52739,7 +52757,7 @@
       <c r="CC686" s="38"/>
       <c r="CD686" s="38"/>
     </row>
-    <row r="687" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="687" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I687" s="38"/>
       <c r="J687" s="38"/>
       <c r="K687" s="38"/>
@@ -52815,7 +52833,7 @@
       <c r="CC687" s="38"/>
       <c r="CD687" s="38"/>
     </row>
-    <row r="688" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="688" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I688" s="39" t="s">
         <v>20</v>
       </c>
@@ -52893,7 +52911,7 @@
       <c r="CC688" s="39"/>
       <c r="CD688" s="39"/>
     </row>
-    <row r="689" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="689" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I689" s="39"/>
       <c r="J689" s="39"/>
       <c r="K689" s="39"/>
@@ -52969,7 +52987,7 @@
       <c r="CC689" s="39"/>
       <c r="CD689" s="39"/>
     </row>
-    <row r="690" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="690" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I690" s="36"/>
       <c r="J690" s="36"/>
       <c r="K690" s="36"/>
@@ -53047,7 +53065,7 @@
       <c r="CC690" s="37"/>
       <c r="CD690" s="37"/>
     </row>
-    <row r="691" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="691" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I691" s="36"/>
       <c r="J691" s="36"/>
       <c r="K691" s="36"/>
@@ -53123,7 +53141,7 @@
       <c r="CC691" s="37"/>
       <c r="CD691" s="37"/>
     </row>
-    <row r="692" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="692" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I692" s="36"/>
       <c r="J692" s="36"/>
       <c r="K692" s="36"/>
@@ -53199,7 +53217,7 @@
       <c r="CC692" s="37"/>
       <c r="CD692" s="37"/>
     </row>
-    <row r="693" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="693" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I693" s="36"/>
       <c r="J693" s="36"/>
       <c r="K693" s="36"/>
@@ -53275,7 +53293,7 @@
       <c r="CC693" s="37"/>
       <c r="CD693" s="37"/>
     </row>
-    <row r="694" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="694" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I694" s="36"/>
       <c r="J694" s="36"/>
       <c r="K694" s="36"/>
@@ -53351,7 +53369,7 @@
       <c r="CC694" s="37"/>
       <c r="CD694" s="37"/>
     </row>
-    <row r="695" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="695" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I695" s="36"/>
       <c r="J695" s="36"/>
       <c r="K695" s="36"/>
@@ -53427,7 +53445,7 @@
       <c r="CC695" s="37"/>
       <c r="CD695" s="37"/>
     </row>
-    <row r="696" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="696" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I696" s="36"/>
       <c r="J696" s="36"/>
       <c r="K696" s="36"/>
@@ -53503,7 +53521,7 @@
       <c r="CC696" s="37"/>
       <c r="CD696" s="37"/>
     </row>
-    <row r="697" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="697" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I697" s="36"/>
       <c r="J697" s="36"/>
       <c r="K697" s="36"/>
@@ -53579,7 +53597,7 @@
       <c r="CC697" s="37"/>
       <c r="CD697" s="37"/>
     </row>
-    <row r="698" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="698" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I698" s="36"/>
       <c r="J698" s="36"/>
       <c r="K698" s="36"/>
@@ -53655,7 +53673,7 @@
       <c r="CC698" s="37"/>
       <c r="CD698" s="37"/>
     </row>
-    <row r="699" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="699" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I699" s="36"/>
       <c r="J699" s="36"/>
       <c r="K699" s="36"/>
@@ -53731,7 +53749,7 @@
       <c r="CC699" s="37"/>
       <c r="CD699" s="37"/>
     </row>
-    <row r="700" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="700" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I700" s="36"/>
       <c r="J700" s="36"/>
       <c r="K700" s="36"/>
@@ -53807,7 +53825,7 @@
       <c r="CC700" s="37"/>
       <c r="CD700" s="37"/>
     </row>
-    <row r="701" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="701" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I701" s="36"/>
       <c r="J701" s="36"/>
       <c r="K701" s="36"/>
@@ -53883,7 +53901,7 @@
       <c r="CC701" s="37"/>
       <c r="CD701" s="37"/>
     </row>
-    <row r="702" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="702" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I702" s="36"/>
       <c r="J702" s="36"/>
       <c r="K702" s="36"/>
@@ -53959,7 +53977,7 @@
       <c r="CC702" s="37"/>
       <c r="CD702" s="37"/>
     </row>
-    <row r="703" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="703" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I703" s="36"/>
       <c r="J703" s="36"/>
       <c r="K703" s="36"/>
@@ -54035,7 +54053,7 @@
       <c r="CC703" s="37"/>
       <c r="CD703" s="37"/>
     </row>
-    <row r="704" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="704" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I704" s="36"/>
       <c r="J704" s="36"/>
       <c r="K704" s="36"/>
@@ -54111,7 +54129,7 @@
       <c r="CC704" s="37"/>
       <c r="CD704" s="37"/>
     </row>
-    <row r="705" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="705" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I705" s="36"/>
       <c r="J705" s="36"/>
       <c r="K705" s="36"/>
@@ -54187,7 +54205,7 @@
       <c r="CC705" s="37"/>
       <c r="CD705" s="37"/>
     </row>
-    <row r="706" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="706" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I706" s="36"/>
       <c r="J706" s="36"/>
       <c r="K706" s="36"/>
@@ -54263,7 +54281,7 @@
       <c r="CC706" s="37"/>
       <c r="CD706" s="37"/>
     </row>
-    <row r="707" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="707" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I707" s="36"/>
       <c r="J707" s="36"/>
       <c r="K707" s="36"/>
@@ -54339,8 +54357,8 @@
       <c r="CC707" s="37"/>
       <c r="CD707" s="37"/>
     </row>
-    <row r="710" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="711" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="710" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="711" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I711" s="39" t="s">
         <v>13</v>
       </c>
@@ -54424,7 +54442,7 @@
       <c r="CC711" s="39"/>
       <c r="CD711" s="39"/>
     </row>
-    <row r="712" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="712" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I712" s="39"/>
       <c r="J712" s="39"/>
       <c r="K712" s="39"/>
@@ -54500,7 +54518,7 @@
       <c r="CC712" s="39"/>
       <c r="CD712" s="39"/>
     </row>
-    <row r="713" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="713" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I713" s="38" t="s">
         <v>35</v>
       </c>
@@ -54584,7 +54602,7 @@
       <c r="CC713" s="38"/>
       <c r="CD713" s="38"/>
     </row>
-    <row r="714" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="714" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I714" s="38"/>
       <c r="J714" s="38"/>
       <c r="K714" s="38"/>
@@ -54660,7 +54678,7 @@
       <c r="CC714" s="38"/>
       <c r="CD714" s="38"/>
     </row>
-    <row r="715" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="715" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I715" s="38"/>
       <c r="J715" s="38"/>
       <c r="K715" s="38"/>
@@ -54736,7 +54754,7 @@
       <c r="CC715" s="38"/>
       <c r="CD715" s="38"/>
     </row>
-    <row r="716" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="716" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I716" s="39" t="s">
         <v>20</v>
       </c>
@@ -54814,7 +54832,7 @@
       <c r="CC716" s="39"/>
       <c r="CD716" s="39"/>
     </row>
-    <row r="717" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="717" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I717" s="39"/>
       <c r="J717" s="39"/>
       <c r="K717" s="39"/>
@@ -54890,7 +54908,7 @@
       <c r="CC717" s="39"/>
       <c r="CD717" s="39"/>
     </row>
-    <row r="718" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="718" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I718" s="36"/>
       <c r="J718" s="36"/>
       <c r="K718" s="36"/>
@@ -54968,7 +54986,7 @@
       <c r="CC718" s="37"/>
       <c r="CD718" s="37"/>
     </row>
-    <row r="719" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="719" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I719" s="36"/>
       <c r="J719" s="36"/>
       <c r="K719" s="36"/>
@@ -55044,7 +55062,7 @@
       <c r="CC719" s="37"/>
       <c r="CD719" s="37"/>
     </row>
-    <row r="720" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="720" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I720" s="36"/>
       <c r="J720" s="36"/>
       <c r="K720" s="36"/>
@@ -55120,7 +55138,7 @@
       <c r="CC720" s="37"/>
       <c r="CD720" s="37"/>
     </row>
-    <row r="721" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="721" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I721" s="36"/>
       <c r="J721" s="36"/>
       <c r="K721" s="36"/>
@@ -55196,7 +55214,7 @@
       <c r="CC721" s="37"/>
       <c r="CD721" s="37"/>
     </row>
-    <row r="722" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="722" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I722" s="36"/>
       <c r="J722" s="36"/>
       <c r="K722" s="36"/>
@@ -55272,7 +55290,7 @@
       <c r="CC722" s="37"/>
       <c r="CD722" s="37"/>
     </row>
-    <row r="723" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="723" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I723" s="36"/>
       <c r="J723" s="36"/>
       <c r="K723" s="36"/>
@@ -55348,7 +55366,7 @@
       <c r="CC723" s="37"/>
       <c r="CD723" s="37"/>
     </row>
-    <row r="724" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="724" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I724" s="36"/>
       <c r="J724" s="36"/>
       <c r="K724" s="36"/>
@@ -55424,7 +55442,7 @@
       <c r="CC724" s="37"/>
       <c r="CD724" s="37"/>
     </row>
-    <row r="725" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="725" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I725" s="36"/>
       <c r="J725" s="36"/>
       <c r="K725" s="36"/>
@@ -55500,7 +55518,7 @@
       <c r="CC725" s="37"/>
       <c r="CD725" s="37"/>
     </row>
-    <row r="726" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="726" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I726" s="36"/>
       <c r="J726" s="36"/>
       <c r="K726" s="36"/>
@@ -55576,7 +55594,7 @@
       <c r="CC726" s="37"/>
       <c r="CD726" s="37"/>
     </row>
-    <row r="727" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="727" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I727" s="36"/>
       <c r="J727" s="36"/>
       <c r="K727" s="36"/>
@@ -55652,7 +55670,7 @@
       <c r="CC727" s="37"/>
       <c r="CD727" s="37"/>
     </row>
-    <row r="728" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="728" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I728" s="36"/>
       <c r="J728" s="36"/>
       <c r="K728" s="36"/>
@@ -55728,7 +55746,7 @@
       <c r="CC728" s="37"/>
       <c r="CD728" s="37"/>
     </row>
-    <row r="729" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="729" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I729" s="36"/>
       <c r="J729" s="36"/>
       <c r="K729" s="36"/>
@@ -55804,7 +55822,7 @@
       <c r="CC729" s="37"/>
       <c r="CD729" s="37"/>
     </row>
-    <row r="730" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="730" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I730" s="36"/>
       <c r="J730" s="36"/>
       <c r="K730" s="36"/>
@@ -55880,7 +55898,7 @@
       <c r="CC730" s="37"/>
       <c r="CD730" s="37"/>
     </row>
-    <row r="731" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="731" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I731" s="36"/>
       <c r="J731" s="36"/>
       <c r="K731" s="36"/>
@@ -55956,7 +55974,7 @@
       <c r="CC731" s="37"/>
       <c r="CD731" s="37"/>
     </row>
-    <row r="732" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="732" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I732" s="36"/>
       <c r="J732" s="36"/>
       <c r="K732" s="36"/>
@@ -56032,7 +56050,7 @@
       <c r="CC732" s="37"/>
       <c r="CD732" s="37"/>
     </row>
-    <row r="733" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="733" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I733" s="36"/>
       <c r="J733" s="36"/>
       <c r="K733" s="36"/>
@@ -56108,7 +56126,7 @@
       <c r="CC733" s="37"/>
       <c r="CD733" s="37"/>
     </row>
-    <row r="734" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="734" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I734" s="36"/>
       <c r="J734" s="36"/>
       <c r="K734" s="36"/>
@@ -56184,7 +56202,7 @@
       <c r="CC734" s="37"/>
       <c r="CD734" s="37"/>
     </row>
-    <row r="735" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="735" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I735" s="36"/>
       <c r="J735" s="36"/>
       <c r="K735" s="36"/>
@@ -56260,8 +56278,8 @@
       <c r="CC735" s="37"/>
       <c r="CD735" s="37"/>
     </row>
-    <row r="738" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="739" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="738" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="739" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I739" s="39" t="s">
         <v>13</v>
       </c>
@@ -56345,7 +56363,7 @@
       <c r="CC739" s="39"/>
       <c r="CD739" s="39"/>
     </row>
-    <row r="740" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="740" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I740" s="39"/>
       <c r="J740" s="39"/>
       <c r="K740" s="39"/>
@@ -56421,7 +56439,7 @@
       <c r="CC740" s="39"/>
       <c r="CD740" s="39"/>
     </row>
-    <row r="741" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="741" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I741" s="38" t="s">
         <v>37</v>
       </c>
@@ -56505,7 +56523,7 @@
       <c r="CC741" s="38"/>
       <c r="CD741" s="38"/>
     </row>
-    <row r="742" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="742" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I742" s="38"/>
       <c r="J742" s="38"/>
       <c r="K742" s="38"/>
@@ -56581,7 +56599,7 @@
       <c r="CC742" s="38"/>
       <c r="CD742" s="38"/>
     </row>
-    <row r="743" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="743" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I743" s="38"/>
       <c r="J743" s="38"/>
       <c r="K743" s="38"/>
@@ -56657,7 +56675,7 @@
       <c r="CC743" s="38"/>
       <c r="CD743" s="38"/>
     </row>
-    <row r="744" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="744" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I744" s="39" t="s">
         <v>20</v>
       </c>
@@ -56735,7 +56753,7 @@
       <c r="CC744" s="39"/>
       <c r="CD744" s="39"/>
     </row>
-    <row r="745" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="745" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I745" s="39"/>
       <c r="J745" s="39"/>
       <c r="K745" s="39"/>
@@ -56811,7 +56829,7 @@
       <c r="CC745" s="39"/>
       <c r="CD745" s="39"/>
     </row>
-    <row r="746" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="746" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I746" s="36"/>
       <c r="J746" s="36"/>
       <c r="K746" s="36"/>
@@ -56889,7 +56907,7 @@
       <c r="CC746" s="37"/>
       <c r="CD746" s="37"/>
     </row>
-    <row r="747" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="747" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I747" s="36"/>
       <c r="J747" s="36"/>
       <c r="K747" s="36"/>
@@ -56965,7 +56983,7 @@
       <c r="CC747" s="37"/>
       <c r="CD747" s="37"/>
     </row>
-    <row r="748" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="748" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I748" s="36"/>
       <c r="J748" s="36"/>
       <c r="K748" s="36"/>
@@ -57041,7 +57059,7 @@
       <c r="CC748" s="37"/>
       <c r="CD748" s="37"/>
     </row>
-    <row r="749" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="749" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I749" s="36"/>
       <c r="J749" s="36"/>
       <c r="K749" s="36"/>
@@ -57117,7 +57135,7 @@
       <c r="CC749" s="37"/>
       <c r="CD749" s="37"/>
     </row>
-    <row r="750" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="750" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I750" s="36"/>
       <c r="J750" s="36"/>
       <c r="K750" s="36"/>
@@ -57193,7 +57211,7 @@
       <c r="CC750" s="37"/>
       <c r="CD750" s="37"/>
     </row>
-    <row r="751" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="751" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I751" s="36"/>
       <c r="J751" s="36"/>
       <c r="K751" s="36"/>
@@ -57269,7 +57287,7 @@
       <c r="CC751" s="37"/>
       <c r="CD751" s="37"/>
     </row>
-    <row r="752" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="752" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I752" s="36"/>
       <c r="J752" s="36"/>
       <c r="K752" s="36"/>
@@ -57345,7 +57363,7 @@
       <c r="CC752" s="37"/>
       <c r="CD752" s="37"/>
     </row>
-    <row r="753" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="753" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I753" s="36"/>
       <c r="J753" s="36"/>
       <c r="K753" s="36"/>
@@ -57421,7 +57439,7 @@
       <c r="CC753" s="37"/>
       <c r="CD753" s="37"/>
     </row>
-    <row r="754" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="754" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I754" s="36"/>
       <c r="J754" s="36"/>
       <c r="K754" s="36"/>
@@ -57497,7 +57515,7 @@
       <c r="CC754" s="37"/>
       <c r="CD754" s="37"/>
     </row>
-    <row r="755" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="755" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I755" s="36"/>
       <c r="J755" s="36"/>
       <c r="K755" s="36"/>
@@ -57573,7 +57591,7 @@
       <c r="CC755" s="37"/>
       <c r="CD755" s="37"/>
     </row>
-    <row r="756" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="756" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I756" s="36"/>
       <c r="J756" s="36"/>
       <c r="K756" s="36"/>
@@ -57649,7 +57667,7 @@
       <c r="CC756" s="37"/>
       <c r="CD756" s="37"/>
     </row>
-    <row r="757" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="757" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I757" s="36"/>
       <c r="J757" s="36"/>
       <c r="K757" s="36"/>
@@ -57725,7 +57743,7 @@
       <c r="CC757" s="37"/>
       <c r="CD757" s="37"/>
     </row>
-    <row r="758" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="758" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I758" s="36"/>
       <c r="J758" s="36"/>
       <c r="K758" s="36"/>
@@ -57801,7 +57819,7 @@
       <c r="CC758" s="37"/>
       <c r="CD758" s="37"/>
     </row>
-    <row r="759" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="759" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I759" s="36"/>
       <c r="J759" s="36"/>
       <c r="K759" s="36"/>
@@ -57877,7 +57895,7 @@
       <c r="CC759" s="37"/>
       <c r="CD759" s="37"/>
     </row>
-    <row r="760" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="760" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I760" s="36"/>
       <c r="J760" s="36"/>
       <c r="K760" s="36"/>
@@ -57953,7 +57971,7 @@
       <c r="CC760" s="37"/>
       <c r="CD760" s="37"/>
     </row>
-    <row r="761" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="761" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I761" s="36"/>
       <c r="J761" s="36"/>
       <c r="K761" s="36"/>
@@ -58029,7 +58047,7 @@
       <c r="CC761" s="37"/>
       <c r="CD761" s="37"/>
     </row>
-    <row r="762" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="762" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I762" s="36"/>
       <c r="J762" s="36"/>
       <c r="K762" s="36"/>
@@ -58105,7 +58123,7 @@
       <c r="CC762" s="37"/>
       <c r="CD762" s="37"/>
     </row>
-    <row r="763" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="763" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I763" s="36"/>
       <c r="J763" s="36"/>
       <c r="K763" s="36"/>
@@ -58181,8 +58199,8 @@
       <c r="CC763" s="37"/>
       <c r="CD763" s="37"/>
     </row>
-    <row r="767" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="768" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="767" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="768" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I768" s="39" t="s">
         <v>13</v>
       </c>
@@ -58266,7 +58284,7 @@
       <c r="CC768" s="39"/>
       <c r="CD768" s="39"/>
     </row>
-    <row r="769" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="769" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I769" s="39"/>
       <c r="J769" s="39"/>
       <c r="K769" s="39"/>
@@ -58342,7 +58360,7 @@
       <c r="CC769" s="39"/>
       <c r="CD769" s="39"/>
     </row>
-    <row r="770" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="770" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I770" s="38" t="s">
         <v>39</v>
       </c>
@@ -58426,7 +58444,7 @@
       <c r="CC770" s="38"/>
       <c r="CD770" s="38"/>
     </row>
-    <row r="771" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="771" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I771" s="38"/>
       <c r="J771" s="38"/>
       <c r="K771" s="38"/>
@@ -58502,7 +58520,7 @@
       <c r="CC771" s="38"/>
       <c r="CD771" s="38"/>
     </row>
-    <row r="772" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="772" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I772" s="38"/>
       <c r="J772" s="38"/>
       <c r="K772" s="38"/>
@@ -58578,7 +58596,7 @@
       <c r="CC772" s="38"/>
       <c r="CD772" s="38"/>
     </row>
-    <row r="773" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="773" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I773" s="39" t="s">
         <v>20</v>
       </c>
@@ -58656,7 +58674,7 @@
       <c r="CC773" s="39"/>
       <c r="CD773" s="39"/>
     </row>
-    <row r="774" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="774" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I774" s="39"/>
       <c r="J774" s="39"/>
       <c r="K774" s="39"/>
@@ -58732,7 +58750,7 @@
       <c r="CC774" s="39"/>
       <c r="CD774" s="39"/>
     </row>
-    <row r="775" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="775" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I775" s="36"/>
       <c r="J775" s="36"/>
       <c r="K775" s="36"/>
@@ -58810,7 +58828,7 @@
       <c r="CC775" s="37"/>
       <c r="CD775" s="37"/>
     </row>
-    <row r="776" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="776" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I776" s="36"/>
       <c r="J776" s="36"/>
       <c r="K776" s="36"/>
@@ -58886,7 +58904,7 @@
       <c r="CC776" s="37"/>
       <c r="CD776" s="37"/>
     </row>
-    <row r="777" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="777" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I777" s="36"/>
       <c r="J777" s="36"/>
       <c r="K777" s="36"/>
@@ -58962,7 +58980,7 @@
       <c r="CC777" s="37"/>
       <c r="CD777" s="37"/>
     </row>
-    <row r="778" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="778" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I778" s="36"/>
       <c r="J778" s="36"/>
       <c r="K778" s="36"/>
@@ -59038,7 +59056,7 @@
       <c r="CC778" s="37"/>
       <c r="CD778" s="37"/>
     </row>
-    <row r="779" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="779" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I779" s="36"/>
       <c r="J779" s="36"/>
       <c r="K779" s="36"/>
@@ -59114,7 +59132,7 @@
       <c r="CC779" s="37"/>
       <c r="CD779" s="37"/>
     </row>
-    <row r="780" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="780" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I780" s="36"/>
       <c r="J780" s="36"/>
       <c r="K780" s="36"/>
@@ -59190,7 +59208,7 @@
       <c r="CC780" s="37"/>
       <c r="CD780" s="37"/>
     </row>
-    <row r="781" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="781" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I781" s="36"/>
       <c r="J781" s="36"/>
       <c r="K781" s="36"/>
@@ -59266,7 +59284,7 @@
       <c r="CC781" s="37"/>
       <c r="CD781" s="37"/>
     </row>
-    <row r="782" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="782" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I782" s="36"/>
       <c r="J782" s="36"/>
       <c r="K782" s="36"/>
@@ -59342,7 +59360,7 @@
       <c r="CC782" s="37"/>
       <c r="CD782" s="37"/>
     </row>
-    <row r="783" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="783" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I783" s="36"/>
       <c r="J783" s="36"/>
       <c r="K783" s="36"/>
@@ -59418,7 +59436,7 @@
       <c r="CC783" s="37"/>
       <c r="CD783" s="37"/>
     </row>
-    <row r="784" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="784" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I784" s="36"/>
       <c r="J784" s="36"/>
       <c r="K784" s="36"/>
@@ -59494,7 +59512,7 @@
       <c r="CC784" s="37"/>
       <c r="CD784" s="37"/>
     </row>
-    <row r="785" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="785" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I785" s="36"/>
       <c r="J785" s="36"/>
       <c r="K785" s="36"/>
@@ -59570,7 +59588,7 @@
       <c r="CC785" s="37"/>
       <c r="CD785" s="37"/>
     </row>
-    <row r="786" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="786" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I786" s="36"/>
       <c r="J786" s="36"/>
       <c r="K786" s="36"/>
@@ -59646,7 +59664,7 @@
       <c r="CC786" s="37"/>
       <c r="CD786" s="37"/>
     </row>
-    <row r="787" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="787" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I787" s="36"/>
       <c r="J787" s="36"/>
       <c r="K787" s="36"/>
@@ -59722,7 +59740,7 @@
       <c r="CC787" s="37"/>
       <c r="CD787" s="37"/>
     </row>
-    <row r="788" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="788" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I788" s="36"/>
       <c r="J788" s="36"/>
       <c r="K788" s="36"/>
@@ -59798,7 +59816,7 @@
       <c r="CC788" s="37"/>
       <c r="CD788" s="37"/>
     </row>
-    <row r="789" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="789" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I789" s="36"/>
       <c r="J789" s="36"/>
       <c r="K789" s="36"/>
@@ -59874,7 +59892,7 @@
       <c r="CC789" s="37"/>
       <c r="CD789" s="37"/>
     </row>
-    <row r="790" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="790" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I790" s="36"/>
       <c r="J790" s="36"/>
       <c r="K790" s="36"/>
@@ -59950,7 +59968,7 @@
       <c r="CC790" s="37"/>
       <c r="CD790" s="37"/>
     </row>
-    <row r="791" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="791" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I791" s="36"/>
       <c r="J791" s="36"/>
       <c r="K791" s="36"/>
@@ -60026,7 +60044,7 @@
       <c r="CC791" s="37"/>
       <c r="CD791" s="37"/>
     </row>
-    <row r="792" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="792" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I792" s="36"/>
       <c r="J792" s="36"/>
       <c r="K792" s="36"/>
@@ -60102,8 +60120,8 @@
       <c r="CC792" s="37"/>
       <c r="CD792" s="37"/>
     </row>
-    <row r="795" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="796" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="795" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="796" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I796" s="39" t="s">
         <v>13</v>
       </c>
@@ -60187,7 +60205,7 @@
       <c r="CC796" s="39"/>
       <c r="CD796" s="39"/>
     </row>
-    <row r="797" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="797" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I797" s="39"/>
       <c r="J797" s="39"/>
       <c r="K797" s="39"/>
@@ -60263,7 +60281,7 @@
       <c r="CC797" s="39"/>
       <c r="CD797" s="39"/>
     </row>
-    <row r="798" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="798" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I798" s="38" t="s">
         <v>41</v>
       </c>
@@ -60347,7 +60365,7 @@
       <c r="CC798" s="38"/>
       <c r="CD798" s="38"/>
     </row>
-    <row r="799" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="799" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I799" s="38"/>
       <c r="J799" s="38"/>
       <c r="K799" s="38"/>
@@ -60423,7 +60441,7 @@
       <c r="CC799" s="38"/>
       <c r="CD799" s="38"/>
     </row>
-    <row r="800" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="800" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I800" s="38"/>
       <c r="J800" s="38"/>
       <c r="K800" s="38"/>
@@ -60499,7 +60517,7 @@
       <c r="CC800" s="38"/>
       <c r="CD800" s="38"/>
     </row>
-    <row r="801" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="801" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I801" s="39" t="s">
         <v>20</v>
       </c>
@@ -60577,7 +60595,7 @@
       <c r="CC801" s="39"/>
       <c r="CD801" s="39"/>
     </row>
-    <row r="802" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="802" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I802" s="39"/>
       <c r="J802" s="39"/>
       <c r="K802" s="39"/>
@@ -60653,7 +60671,7 @@
       <c r="CC802" s="39"/>
       <c r="CD802" s="39"/>
     </row>
-    <row r="803" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="803" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I803" s="36"/>
       <c r="J803" s="36"/>
       <c r="K803" s="36"/>
@@ -60731,7 +60749,7 @@
       <c r="CC803" s="37"/>
       <c r="CD803" s="37"/>
     </row>
-    <row r="804" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="804" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I804" s="36"/>
       <c r="J804" s="36"/>
       <c r="K804" s="36"/>
@@ -60807,7 +60825,7 @@
       <c r="CC804" s="37"/>
       <c r="CD804" s="37"/>
     </row>
-    <row r="805" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="805" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I805" s="36"/>
       <c r="J805" s="36"/>
       <c r="K805" s="36"/>
@@ -60883,7 +60901,7 @@
       <c r="CC805" s="37"/>
       <c r="CD805" s="37"/>
     </row>
-    <row r="806" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="806" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I806" s="36"/>
       <c r="J806" s="36"/>
       <c r="K806" s="36"/>
@@ -60959,7 +60977,7 @@
       <c r="CC806" s="37"/>
       <c r="CD806" s="37"/>
     </row>
-    <row r="807" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="807" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I807" s="36"/>
       <c r="J807" s="36"/>
       <c r="K807" s="36"/>
@@ -61035,7 +61053,7 @@
       <c r="CC807" s="37"/>
       <c r="CD807" s="37"/>
     </row>
-    <row r="808" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="808" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I808" s="36"/>
       <c r="J808" s="36"/>
       <c r="K808" s="36"/>
@@ -61111,7 +61129,7 @@
       <c r="CC808" s="37"/>
       <c r="CD808" s="37"/>
     </row>
-    <row r="809" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="809" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I809" s="36"/>
       <c r="J809" s="36"/>
       <c r="K809" s="36"/>
@@ -61187,7 +61205,7 @@
       <c r="CC809" s="37"/>
       <c r="CD809" s="37"/>
     </row>
-    <row r="810" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="810" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I810" s="36"/>
       <c r="J810" s="36"/>
       <c r="K810" s="36"/>
@@ -61263,7 +61281,7 @@
       <c r="CC810" s="37"/>
       <c r="CD810" s="37"/>
     </row>
-    <row r="811" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="811" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I811" s="36"/>
       <c r="J811" s="36"/>
       <c r="K811" s="36"/>
@@ -61339,7 +61357,7 @@
       <c r="CC811" s="37"/>
       <c r="CD811" s="37"/>
     </row>
-    <row r="812" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="812" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I812" s="36"/>
       <c r="J812" s="36"/>
       <c r="K812" s="36"/>
@@ -61415,7 +61433,7 @@
       <c r="CC812" s="37"/>
       <c r="CD812" s="37"/>
     </row>
-    <row r="813" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="813" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I813" s="36"/>
       <c r="J813" s="36"/>
       <c r="K813" s="36"/>
@@ -61491,7 +61509,7 @@
       <c r="CC813" s="37"/>
       <c r="CD813" s="37"/>
     </row>
-    <row r="814" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="814" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I814" s="36"/>
       <c r="J814" s="36"/>
       <c r="K814" s="36"/>
@@ -61567,7 +61585,7 @@
       <c r="CC814" s="37"/>
       <c r="CD814" s="37"/>
     </row>
-    <row r="815" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="815" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I815" s="36"/>
       <c r="J815" s="36"/>
       <c r="K815" s="36"/>
@@ -61643,7 +61661,7 @@
       <c r="CC815" s="37"/>
       <c r="CD815" s="37"/>
     </row>
-    <row r="816" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="816" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I816" s="36"/>
       <c r="J816" s="36"/>
       <c r="K816" s="36"/>
@@ -61719,7 +61737,7 @@
       <c r="CC816" s="37"/>
       <c r="CD816" s="37"/>
     </row>
-    <row r="817" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="817" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I817" s="36"/>
       <c r="J817" s="36"/>
       <c r="K817" s="36"/>
@@ -61795,7 +61813,7 @@
       <c r="CC817" s="37"/>
       <c r="CD817" s="37"/>
     </row>
-    <row r="818" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="818" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I818" s="36"/>
       <c r="J818" s="36"/>
       <c r="K818" s="36"/>
@@ -61871,7 +61889,7 @@
       <c r="CC818" s="37"/>
       <c r="CD818" s="37"/>
     </row>
-    <row r="819" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="819" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I819" s="36"/>
       <c r="J819" s="36"/>
       <c r="K819" s="36"/>
@@ -61947,7 +61965,7 @@
       <c r="CC819" s="37"/>
       <c r="CD819" s="37"/>
     </row>
-    <row r="820" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="820" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I820" s="36"/>
       <c r="J820" s="36"/>
       <c r="K820" s="36"/>
@@ -62023,8 +62041,8 @@
       <c r="CC820" s="37"/>
       <c r="CD820" s="37"/>
     </row>
-    <row r="823" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="824" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="823" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="824" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I824" s="39" t="s">
         <v>13</v>
       </c>
@@ -62108,7 +62126,7 @@
       <c r="CC824" s="39"/>
       <c r="CD824" s="39"/>
     </row>
-    <row r="825" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="825" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I825" s="39"/>
       <c r="J825" s="39"/>
       <c r="K825" s="39"/>
@@ -62184,7 +62202,7 @@
       <c r="CC825" s="39"/>
       <c r="CD825" s="39"/>
     </row>
-    <row r="826" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="826" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I826" s="38" t="s">
         <v>43</v>
       </c>
@@ -62268,7 +62286,7 @@
       <c r="CC826" s="38"/>
       <c r="CD826" s="38"/>
     </row>
-    <row r="827" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="827" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I827" s="38"/>
       <c r="J827" s="38"/>
       <c r="K827" s="38"/>
@@ -62344,7 +62362,7 @@
       <c r="CC827" s="38"/>
       <c r="CD827" s="38"/>
     </row>
-    <row r="828" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="828" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I828" s="38"/>
       <c r="J828" s="38"/>
       <c r="K828" s="38"/>
@@ -62420,7 +62438,7 @@
       <c r="CC828" s="38"/>
       <c r="CD828" s="38"/>
     </row>
-    <row r="829" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="829" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I829" s="39" t="s">
         <v>20</v>
       </c>
@@ -62498,7 +62516,7 @@
       <c r="CC829" s="39"/>
       <c r="CD829" s="39"/>
     </row>
-    <row r="830" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="830" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I830" s="39"/>
       <c r="J830" s="39"/>
       <c r="K830" s="39"/>
@@ -62574,7 +62592,7 @@
       <c r="CC830" s="39"/>
       <c r="CD830" s="39"/>
     </row>
-    <row r="831" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="831" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I831" s="36"/>
       <c r="J831" s="36"/>
       <c r="K831" s="36"/>
@@ -62652,7 +62670,7 @@
       <c r="CC831" s="37"/>
       <c r="CD831" s="37"/>
     </row>
-    <row r="832" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="832" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I832" s="36"/>
       <c r="J832" s="36"/>
       <c r="K832" s="36"/>
@@ -62728,7 +62746,7 @@
       <c r="CC832" s="37"/>
       <c r="CD832" s="37"/>
     </row>
-    <row r="833" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="833" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I833" s="36"/>
       <c r="J833" s="36"/>
       <c r="K833" s="36"/>
@@ -62804,7 +62822,7 @@
       <c r="CC833" s="37"/>
       <c r="CD833" s="37"/>
     </row>
-    <row r="834" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="834" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I834" s="36"/>
       <c r="J834" s="36"/>
       <c r="K834" s="36"/>
@@ -62880,7 +62898,7 @@
       <c r="CC834" s="37"/>
       <c r="CD834" s="37"/>
     </row>
-    <row r="835" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="835" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I835" s="36"/>
       <c r="J835" s="36"/>
       <c r="K835" s="36"/>
@@ -62956,7 +62974,7 @@
       <c r="CC835" s="37"/>
       <c r="CD835" s="37"/>
     </row>
-    <row r="836" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="836" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I836" s="36"/>
       <c r="J836" s="36"/>
       <c r="K836" s="36"/>
@@ -63032,7 +63050,7 @@
       <c r="CC836" s="37"/>
       <c r="CD836" s="37"/>
     </row>
-    <row r="837" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="837" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I837" s="36"/>
       <c r="J837" s="36"/>
       <c r="K837" s="36"/>
@@ -63108,7 +63126,7 @@
       <c r="CC837" s="37"/>
       <c r="CD837" s="37"/>
     </row>
-    <row r="838" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="838" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I838" s="36"/>
       <c r="J838" s="36"/>
       <c r="K838" s="36"/>
@@ -63184,7 +63202,7 @@
       <c r="CC838" s="37"/>
       <c r="CD838" s="37"/>
     </row>
-    <row r="839" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="839" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I839" s="36"/>
       <c r="J839" s="36"/>
       <c r="K839" s="36"/>
@@ -63260,7 +63278,7 @@
       <c r="CC839" s="37"/>
       <c r="CD839" s="37"/>
     </row>
-    <row r="840" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="840" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I840" s="36"/>
       <c r="J840" s="36"/>
       <c r="K840" s="36"/>
@@ -63336,7 +63354,7 @@
       <c r="CC840" s="37"/>
       <c r="CD840" s="37"/>
     </row>
-    <row r="841" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="841" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I841" s="36"/>
       <c r="J841" s="36"/>
       <c r="K841" s="36"/>
@@ -63412,7 +63430,7 @@
       <c r="CC841" s="37"/>
       <c r="CD841" s="37"/>
     </row>
-    <row r="842" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="842" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I842" s="36"/>
       <c r="J842" s="36"/>
       <c r="K842" s="36"/>
@@ -63488,7 +63506,7 @@
       <c r="CC842" s="37"/>
       <c r="CD842" s="37"/>
     </row>
-    <row r="843" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="843" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I843" s="36"/>
       <c r="J843" s="36"/>
       <c r="K843" s="36"/>
@@ -63564,7 +63582,7 @@
       <c r="CC843" s="37"/>
       <c r="CD843" s="37"/>
     </row>
-    <row r="844" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="844" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I844" s="36"/>
       <c r="J844" s="36"/>
       <c r="K844" s="36"/>
@@ -63640,7 +63658,7 @@
       <c r="CC844" s="37"/>
       <c r="CD844" s="37"/>
     </row>
-    <row r="845" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="845" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I845" s="36"/>
       <c r="J845" s="36"/>
       <c r="K845" s="36"/>
@@ -63716,7 +63734,7 @@
       <c r="CC845" s="37"/>
       <c r="CD845" s="37"/>
     </row>
-    <row r="846" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="846" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I846" s="36"/>
       <c r="J846" s="36"/>
       <c r="K846" s="36"/>
@@ -63792,7 +63810,7 @@
       <c r="CC846" s="37"/>
       <c r="CD846" s="37"/>
     </row>
-    <row r="847" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="847" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I847" s="36"/>
       <c r="J847" s="36"/>
       <c r="K847" s="36"/>
@@ -63868,7 +63886,7 @@
       <c r="CC847" s="37"/>
       <c r="CD847" s="37"/>
     </row>
-    <row r="848" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="848" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I848" s="36"/>
       <c r="J848" s="36"/>
       <c r="K848" s="36"/>
@@ -63944,8 +63962,8 @@
       <c r="CC848" s="37"/>
       <c r="CD848" s="37"/>
     </row>
-    <row r="851" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="852" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="851" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="852" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I852" s="39" t="s">
         <v>13</v>
       </c>
@@ -64029,7 +64047,7 @@
       <c r="CC852" s="39"/>
       <c r="CD852" s="39"/>
     </row>
-    <row r="853" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="853" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I853" s="39"/>
       <c r="J853" s="39"/>
       <c r="K853" s="39"/>
@@ -64105,7 +64123,7 @@
       <c r="CC853" s="39"/>
       <c r="CD853" s="39"/>
     </row>
-    <row r="854" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="854" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I854" s="38" t="s">
         <v>46</v>
       </c>
@@ -64189,7 +64207,7 @@
       <c r="CC854" s="38"/>
       <c r="CD854" s="38"/>
     </row>
-    <row r="855" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="855" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I855" s="38"/>
       <c r="J855" s="38"/>
       <c r="K855" s="38"/>
@@ -64265,7 +64283,7 @@
       <c r="CC855" s="38"/>
       <c r="CD855" s="38"/>
     </row>
-    <row r="856" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="856" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I856" s="38"/>
       <c r="J856" s="38"/>
       <c r="K856" s="38"/>
@@ -64341,7 +64359,7 @@
       <c r="CC856" s="38"/>
       <c r="CD856" s="38"/>
     </row>
-    <row r="857" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="857" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I857" s="39" t="s">
         <v>20</v>
       </c>
@@ -64419,7 +64437,7 @@
       <c r="CC857" s="39"/>
       <c r="CD857" s="39"/>
     </row>
-    <row r="858" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="858" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I858" s="39"/>
       <c r="J858" s="39"/>
       <c r="K858" s="39"/>
@@ -64495,7 +64513,7 @@
       <c r="CC858" s="39"/>
       <c r="CD858" s="39"/>
     </row>
-    <row r="859" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="859" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I859" s="36"/>
       <c r="J859" s="36"/>
       <c r="K859" s="36"/>
@@ -64573,7 +64591,7 @@
       <c r="CC859" s="37"/>
       <c r="CD859" s="37"/>
     </row>
-    <row r="860" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="860" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I860" s="36"/>
       <c r="J860" s="36"/>
       <c r="K860" s="36"/>
@@ -64649,7 +64667,7 @@
       <c r="CC860" s="37"/>
       <c r="CD860" s="37"/>
     </row>
-    <row r="861" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="861" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I861" s="36"/>
       <c r="J861" s="36"/>
       <c r="K861" s="36"/>
@@ -64725,7 +64743,7 @@
       <c r="CC861" s="37"/>
       <c r="CD861" s="37"/>
     </row>
-    <row r="862" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="862" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I862" s="36"/>
       <c r="J862" s="36"/>
       <c r="K862" s="36"/>
@@ -64801,7 +64819,7 @@
       <c r="CC862" s="37"/>
       <c r="CD862" s="37"/>
     </row>
-    <row r="863" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="863" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I863" s="36"/>
       <c r="J863" s="36"/>
       <c r="K863" s="36"/>
@@ -64877,7 +64895,7 @@
       <c r="CC863" s="37"/>
       <c r="CD863" s="37"/>
     </row>
-    <row r="864" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="864" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I864" s="36"/>
       <c r="J864" s="36"/>
       <c r="K864" s="36"/>
@@ -64953,7 +64971,7 @@
       <c r="CC864" s="37"/>
       <c r="CD864" s="37"/>
     </row>
-    <row r="865" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="865" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I865" s="36"/>
       <c r="J865" s="36"/>
       <c r="K865" s="36"/>
@@ -65029,7 +65047,7 @@
       <c r="CC865" s="37"/>
       <c r="CD865" s="37"/>
     </row>
-    <row r="866" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="866" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I866" s="36"/>
       <c r="J866" s="36"/>
       <c r="K866" s="36"/>
@@ -65105,7 +65123,7 @@
       <c r="CC866" s="37"/>
       <c r="CD866" s="37"/>
     </row>
-    <row r="867" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="867" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I867" s="36"/>
       <c r="J867" s="36"/>
       <c r="K867" s="36"/>
@@ -65181,7 +65199,7 @@
       <c r="CC867" s="37"/>
       <c r="CD867" s="37"/>
     </row>
-    <row r="868" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="868" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I868" s="36"/>
       <c r="J868" s="36"/>
       <c r="K868" s="36"/>
@@ -65257,7 +65275,7 @@
       <c r="CC868" s="37"/>
       <c r="CD868" s="37"/>
     </row>
-    <row r="869" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="869" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I869" s="36"/>
       <c r="J869" s="36"/>
       <c r="K869" s="36"/>
@@ -65333,7 +65351,7 @@
       <c r="CC869" s="37"/>
       <c r="CD869" s="37"/>
     </row>
-    <row r="870" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="870" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I870" s="36"/>
       <c r="J870" s="36"/>
       <c r="K870" s="36"/>
@@ -65409,7 +65427,7 @@
       <c r="CC870" s="37"/>
       <c r="CD870" s="37"/>
     </row>
-    <row r="871" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="871" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I871" s="36"/>
       <c r="J871" s="36"/>
       <c r="K871" s="36"/>
@@ -65485,7 +65503,7 @@
       <c r="CC871" s="37"/>
       <c r="CD871" s="37"/>
     </row>
-    <row r="872" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="872" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I872" s="36"/>
       <c r="J872" s="36"/>
       <c r="K872" s="36"/>
@@ -65561,7 +65579,7 @@
       <c r="CC872" s="37"/>
       <c r="CD872" s="37"/>
     </row>
-    <row r="873" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="873" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I873" s="36"/>
       <c r="J873" s="36"/>
       <c r="K873" s="36"/>
@@ -65637,7 +65655,7 @@
       <c r="CC873" s="37"/>
       <c r="CD873" s="37"/>
     </row>
-    <row r="874" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="874" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I874" s="36"/>
       <c r="J874" s="36"/>
       <c r="K874" s="36"/>
@@ -65713,7 +65731,7 @@
       <c r="CC874" s="37"/>
       <c r="CD874" s="37"/>
     </row>
-    <row r="875" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="875" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I875" s="36"/>
       <c r="J875" s="36"/>
       <c r="K875" s="36"/>
@@ -65789,7 +65807,7 @@
       <c r="CC875" s="37"/>
       <c r="CD875" s="37"/>
     </row>
-    <row r="876" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="876" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I876" s="36"/>
       <c r="J876" s="36"/>
       <c r="K876" s="36"/>
